--- a/src/model_integration/output.xlsx
+++ b/src/model_integration/output.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -32,11 +32,13 @@
     </font>
     <font>
       <name val="Arial"/>
+      <color indexed="64"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
       <i val="1"/>
+      <color indexed="64"/>
       <sz val="10"/>
       <u val="single"/>
     </font>
@@ -70,6 +72,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <color theme="9" tint="-0.249977111117893"/>
       <sz val="11"/>
@@ -100,13 +106,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <fgColor rgb="FFF0F0E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0E8"/>
+        <fgColor indexed="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -120,7 +125,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color rgb="FFA0A098"/>
@@ -129,7 +134,7 @@
         <color rgb="FFA0A098"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -139,10 +144,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -151,28 +156,28 @@
         <color rgb="FFA0A098"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color rgb="FFA0A098"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -181,10 +186,10 @@
         <color rgb="FFA0A098"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color rgb="FFA0A098"/>
@@ -193,13 +198,13 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color rgb="FFA0A098"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color rgb="FFA0A098"/>
@@ -208,16 +213,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -244,9 +249,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="1" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -254,17 +261,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -272,10 +281,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -866,6 +875,36 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8696325" cy="3914775"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="twoCell">
     <from>
@@ -6606,9 +6645,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F963"/>
+  <dimension ref="A1:F961"/>
   <sheetViews>
-    <sheetView topLeftCell="B881" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A865" zoomScale="100" workbookViewId="0">
       <selection activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -6735,34 +6774,34 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Kommentar</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>was very important from management leader point of view</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Kategorie</t>
+          <t>Nicht verständlich</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>'Dr. Patrick is an awesome teacher!'</t>
+          <t>If possible more real life or practical examples would make the sessions more interesting</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Positiv</t>
+          <t>Anregungen, Wünsche</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -6779,17 +6818,17 @@
     <row r="19">
       <c r="A19" s="10" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B19" s="11" t="inlineStr">
         <is>
-          <t>'The scope of this course, especially considering how important innovation is in today''s context. Was really interesting and engaging, and made us brainstorm'</t>
+          <t>Considering it was his first time teaching this specific course, I believe he was really good, but needs to work a little on increasing the learning points in the course</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nicht verständlich</t>
+          <t>Anregungen, Wünsche</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -6804,17 +6843,17 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B20" s="11" t="inlineStr">
-        <is>
-          <t>'I am writing to express my deep appreciation for the exceptional course on Cases in International Innovation Management. I am compelled to provide my utmost support and admiration for the professor as an esteemed mentor, and visionary.'</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Anregungen, Wünsche</t>
+          <t>Neutral, kein Kommentar, äquivalente Symbole, bedeutungslos</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -6823,18 +6862,18 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>'The questions for the group work can be more straightforward.</t>
+          <t>Advertisements used as examples, to make us understand the theory.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6848,23 +6887,23 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B22" s="11" t="inlineStr">
-        <is>
-          <t>'combination of papers and summaries, theory and practice'</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>This course is extremely helpful as I have learned very interesting theories that are essential for my thesis.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Anregungen, Wünsche</t>
+          <t>Positiv</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -6873,23 +6912,23 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B23" s="11" t="inlineStr">
         <is>
-          <t>'Satisfactory'</t>
+          <t>Prof. Terlutter''s class was interesting, interactive and relatable.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nicht eindeutig zuordenbar</t>
+          <t>Positiv</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -6898,23 +6937,23 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B24" s="11" t="inlineStr">
-        <is>
-          <t>'some more interactions would be nice'</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>The Topics</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Anregungen, Wünsche</t>
+          <t>Nicht eindeutig zuordenbar</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -6923,23 +6962,23 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B25" s="11" t="inlineStr">
         <is>
-          <t>'In this course it is clear to see that the professor has vast knowledge in her topic of study, although this wasn’t reciprocated to the students. It was a pretty uninteresting and hard to follow. Although the content itself seems pretty straightforward, it was not presented as such from the professor. There was no opening to the class, instead she jumped into a long article with no context or explanation.</t>
+          <t>Persch allocated lecture time so that we can have more engagement in class.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Negativ</t>
+          <t>Anregungen, Wünsche</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
@@ -6948,18 +6987,18 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B26" s="11" t="inlineStr">
-        <is>
-          <t>'None'</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>Might have a less hours of class instead of a 3,4 hours</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6973,103 +7012,103 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B27" s="11" t="inlineStr">
-        <is>
-          <t>'With this subject, you can tell that the professor has extensive knowledge. However, the way this information in both the winter and summer semesters was presented is not conducive for learning. The lectures were not organized in a way that was easy to follow and the explanations of the topics were not helpful in any way. I respect that the professor has a lot of knowledge and experience in the field, but I wish to pursue logistics in my career and this class has not aided me in my educational journey. As this is a core subject offered in the International Management program, it is important that we are taught the information well. There was no introduction on the first day of lecture, but she jumped straight into reading something with no context and then proceeds to only read the slides.  I am ready to expand my knowledge in this field, but with this class, it is obvious to me that I need to research the topics on my own and teach myself.'</t>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>I think the questionnaire are perfect</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Negativ</t>
+          <t>Nicht verständlich</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B28" s="11" t="inlineStr">
-        <is>
-          <t>'I find it hard to follow the lecture, especially when the lecturer jumps among different powerpoint files and papers.'</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>Breaking down complicated topics in an easy-to-understand way.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nicht verständlich</t>
+          <t>Anregungen, Wünsche</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B29" s="11" t="inlineStr">
         <is>
-          <t>'None'</t>
+          <t>Examples provided by the professor and introduction of currently relevant topics.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nicht eindeutig zuordenbar</t>
+          <t>Anregungen, Wünsche</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B30" s="11" t="inlineStr">
-        <is>
-          <t>'It is really helpful for students in their second or third semester to understand how to start the process of writing a master thesis and getting familiar with the topics in this department as well as how to handle scientific documents. Furthermore, I think it is a very good way to introduce students even coming from other countries like me to understand how it works in this department and university as it can really differ from other realities like it has been in my case.</t>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>The teacher is a true teacher as he simplified the course for better understanding.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Anregungen, Wünsche</t>
+          <t>Nicht verständlich</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B31" s="11" t="inlineStr">
-        <is>
-          <t>'Guided practice of the live intercultural communication, both watched from aside and felt involved in.'</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>The slides were not up to date. I would appreciate more current/recent data</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Anregungen, Wünsche</t>
+          <t>Nicht eindeutig zuordenbar</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="10" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B32" s="11" t="inlineStr">
         <is>
-          <t>'Truly enjoyed how this course embodies intercultural teams, the interaction between students from various cultures added more depth to the learning experience '</t>
+          <t>More practical examples on the life situation of students.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7081,580 +7120,195 @@
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="B33" s="11" t="inlineStr">
-        <is>
-          <t>'I really appreciated the learning environment that was created, the general energy within the course and the dynamic way of doing this class. In general this was one of the most memorable classes that I have had in 7 years of studying, and i am more than grateful to the lecturer, for letting us learn in an open framework like this. I can truly recommend taking this class, because you do not only learn about intercultural issues, you experience them first hand, and through this experiential approach I learned more, than I ever thought was possible.'</t>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Anregungen, Wünsche</t>
+          <t>Nicht eindeutig zuordenbar</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B34" s="11" t="inlineStr">
-        <is>
-          <t>Herr Bakk. Kumar Sethia hat während des gesamten Kurses eine Atmosphäre freier Diskussion geschaffen und aufrechterhalten.</t>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>Data in the ppts could be updated to the latest data.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Bezug auf LV</t>
+          <t>Nicht verständlich</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B35" s="11" t="inlineStr">
         <is>
-          <t>The professor''s approach to all students was brilliant.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Positiv</t>
+          <t>Nicht eindeutig zuordenbar</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B36" s="11" t="inlineStr">
-        <is>
-          <t>Mehr praktische Beispiele wären hilfreich.</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>Lively Class</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Anregungen, Wünsche</t>
+          <t>Bezug auf LV</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B37" s="11" t="inlineStr">
-        <is>
-          <t>The class was super interactive and the professor always supported this friendly atmosphere where you could work and think with no pressure.</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Positiv</t>
-        </is>
-      </c>
+      <c r="A37" s="10" t="n"/>
+      <c r="B37" s="11" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B38" s="11" t="inlineStr">
-        <is>
-          <t>It would be beneficial for the course to include various materials.</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Nicht verständlich</t>
-        </is>
-      </c>
+      <c r="A38" s="10" t="n"/>
+      <c r="B38" s="11" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B39" s="11" t="inlineStr">
-        <is>
-          <t>No criticism</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Neutral, kein Kommentar, äquivalente Symbole, bedeutungslos</t>
-        </is>
-      </c>
+      <c r="A39" s="10" t="n"/>
+      <c r="B39" s="11" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B40" s="11" t="inlineStr">
-        <is>
-          <t>I believe it brought a positive atmosphere to the class as well and at the same time let people work efficiently.</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Positiv</t>
-        </is>
-      </c>
+      <c r="A40" s="10" t="n"/>
+      <c r="B40" s="11" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B41" s="11" t="inlineStr">
-        <is>
-          <t>It is more related to some students in class, rather than the course.</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Nicht eindeutig zuordenbar</t>
-        </is>
-      </c>
+      <c r="A41" s="10" t="n"/>
+      <c r="B41" s="11" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B42" s="11" t="inlineStr">
-        <is>
-          <t>Keine Kritik überhaupt. Ich würde gerne mehr solcher Kurse im Programm haben.</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Positiv</t>
-        </is>
-      </c>
+      <c r="A42" s="10" t="n"/>
+      <c r="B42" s="11" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B43" s="11" t="inlineStr">
-        <is>
-          <t>Everyting was on point. I would not change anything</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Nicht verständlich</t>
-        </is>
-      </c>
+      <c r="A43" s="10" t="n"/>
+      <c r="B43" s="11" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B44" s="11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Nicht eindeutig zuordenbar</t>
-        </is>
-      </c>
+      <c r="A44" s="7" t="n"/>
+      <c r="B44" s="8" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B45" s="11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Nicht eindeutig zuordenbar</t>
-        </is>
-      </c>
+      <c r="A45" s="10" t="n"/>
+      <c r="B45" s="11" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B46" s="11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Nicht eindeutig zuordenbar</t>
-        </is>
-      </c>
+      <c r="A46" s="7" t="n"/>
+      <c r="B46" s="8" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="10" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B47" s="11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Nicht eindeutig zuordenbar</t>
-        </is>
-      </c>
+      <c r="A47" s="10" t="n"/>
+      <c r="B47" s="11" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="B48" s="11" t="inlineStr">
-        <is>
-          <t>Good content of videos and lectures</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Nicht verständlich</t>
-        </is>
-      </c>
+      <c r="A48" s="7" t="n"/>
+      <c r="B48" s="8" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="B49" s="11" t="inlineStr">
-        <is>
-          <t>next time you give this course, don''t make it at 8 AM , it''s not helpful for students and even If people attended at 8AM, much of the information "learned" will be lost because we are tired when we wake up that early</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Nicht eindeutig zuordenbar</t>
-        </is>
-      </c>
+      <c r="A49" s="7" t="n"/>
+      <c r="B49" s="8" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B50" s="11" t="inlineStr">
-        <is>
-          <t>Maybe some simulations/animations will help for visual understanding. Maybe more sequential and combinational circuits could be covered. But overall very good and one of the best courses this Uni can offer to any student. Thumbs up.</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Anregungen, Wünsche</t>
-        </is>
-      </c>
+      <c r="A50" s="7" t="n"/>
+      <c r="B50" s="8" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="B51" s="11" t="inlineStr">
-        <is>
-          <t>Its lecture are mostly early morning in 8. So, it is sometimes really tiring and difficult. Some of the topics are also boring.</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Negativ</t>
-        </is>
-      </c>
+      <c r="A51" s="7" t="n"/>
+      <c r="B51" s="8" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="B52" s="11" t="inlineStr">
-        <is>
-          <t>It will be great if we have another lecture class to attend. Some topics are boring and some need to be provided with good examples to be understandable.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Anregungen, Wünsche</t>
-        </is>
-      </c>
+      <c r="A52" s="7" t="n"/>
+      <c r="B52" s="8" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="10" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="B53" s="11" t="inlineStr">
-        <is>
-          <t>Continuous feedback, the lecturer made sure that everyone understood each topic and created a space for everyone to ask questions.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Neutral, kein Kommentar, äquivalente Symbole, bedeutungslos</t>
-        </is>
-      </c>
+      <c r="A53" s="10" t="n"/>
+      <c r="B53" s="11" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="10" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="B54" s="11" t="inlineStr">
-        <is>
-          <t>The explanation was pretty good</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Positiv</t>
-        </is>
-      </c>
+      <c r="A54" s="10" t="n"/>
+      <c r="B54" s="11" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="B55" s="11" t="inlineStr">
-        <is>
-          <t>teacher actually explains things and tries his best to make things clear about the projects ,homerworks and their solutions afterwards , Mr.Rockson is a decent teacher and I believe he cares for his students unlike some professors.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Anregungen, Wünsche</t>
-        </is>
-      </c>
+      <c r="A55" s="7" t="n"/>
+      <c r="B55" s="8" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="B56" s="11" t="inlineStr">
-        <is>
-          <t>I totally love this class. No matter I understand it or not, I will attend this class. I like the lecturer, his power in class (he always takes time for his students to follow up upon his topics) and also the environment in the class. Everything''s completely fine for me.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Anregungen, Wünsche</t>
+      <c r="A56" s="7" t="n"/>
+      <c r="B56" s="8" t="n"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Kommentare zun Fragebogen</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="B57" s="11" t="inlineStr">
-        <is>
-          <t>es wurde alles recht genau erklärt, speziell wenn man nachgefragt hat</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Nicht eindeutig zuordenbar</t>
-        </is>
-      </c>
+      <c r="A57" s="7" t="n"/>
+      <c r="B57" s="8" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="10" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="B58" s="11" t="inlineStr">
-        <is>
-          <t>I have a concern about the upcoming exam. I''m worried that it might include 16-row or more truth tables, which for an average student, could take too long to complete. In my case, a 4-input truth table takes about 8 – 20 minutes, and sometimes even more, depending on the equation. Some of my colleagues also take a long time to perform multiple truth tables, and as far as I understand, the points awarded do not correspond to the time invested.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Nicht eindeutig zuordenbar</t>
-        </is>
-      </c>
+      <c r="A58" s="10" t="n"/>
+      <c r="B58" s="11" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="10" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="B59" s="11" t="inlineStr">
-        <is>
-          <t>die aufgaben können schneller durchgegangen werden, vor allem die leichteren Dinge müssen nicht so ewig besprochen werden</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Anregungen, Wünsche</t>
-        </is>
-      </c>
+      <c r="A59" s="10" t="n"/>
+      <c r="B59" s="11" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="10" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="B60" s="11" t="inlineStr">
-        <is>
-          <t>No, I almost doesn''t have any criticism at all for this class.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Nicht verständlich</t>
-        </is>
-      </c>
+      <c r="A60" s="10" t="n"/>
+      <c r="B60" s="11" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="B61" s="11" t="inlineStr">
-        <is>
-          <t>It will be very great if the exam is really easy.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Anregungen, Wünsche</t>
-        </is>
-      </c>
+      <c r="A61" s="7" t="n"/>
+      <c r="B61" s="8" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="10" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="B62" s="11" t="inlineStr">
-        <is>
-          <t>it would be cool if there are more live/practical demonstrations on some topics.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Anregungen, Wünsche</t>
-        </is>
-      </c>
+      <c r="A62" s="10" t="n"/>
+      <c r="B62" s="11" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="B63" s="11" t="inlineStr">
-        <is>
-          <t>Some of the books they provided are really awesome. I can also follow up.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Nicht verständlich</t>
-        </is>
-      </c>
+      <c r="A63" s="7" t="n"/>
+      <c r="B63" s="8" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="B64" s="11" t="inlineStr">
-        <is>
-          <t>I sometimes cannot understand what the lecturer is saying. The topics are sometimes really hard. Often, he did not write on board very clearly, it is difficult to follow up.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Nicht eindeutig zuordenbar</t>
-        </is>
-      </c>
+      <c r="A64" s="7" t="n"/>
+      <c r="B64" s="8" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="10" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="B65" s="11" t="inlineStr">
-        <is>
-          <t>It will be great if we have another lecture class to attend. Some topics are boring and some need to be provided with good examples to be understandable.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Anregungen, Wünsche</t>
-        </is>
-      </c>
+      <c r="A65" s="10" t="n"/>
+      <c r="B65" s="11" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="10" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="B66" s="11" t="inlineStr">
-        <is>
-          <t>Nicht vorhanden</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Nicht verständlich</t>
-        </is>
-      </c>
+      <c r="A66" s="10" t="n"/>
+      <c r="B66" s="11" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="10" t="n"/>
@@ -7666,7 +7320,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="n"/>
-      <c r="B69" s="11" t="n"/>
+      <c r="B69" s="8" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="10" t="n"/>
@@ -7674,7 +7328,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="n"/>
-      <c r="B71" s="11" t="n"/>
+      <c r="B71" s="8" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="10" t="n"/>
@@ -7686,19 +7340,19 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="n"/>
-      <c r="B74" s="11" t="n"/>
+      <c r="B74" s="8" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="7" t="n"/>
-      <c r="B75" s="11" t="n"/>
+      <c r="B75" s="8" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="7" t="n"/>
-      <c r="B76" s="11" t="n"/>
+      <c r="B76" s="8" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="7" t="n"/>
-      <c r="B77" s="11" t="n"/>
+      <c r="B77" s="8" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="10" t="n"/>
@@ -7718,7 +7372,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="n"/>
-      <c r="B82" s="11" t="n"/>
+      <c r="B82" s="8" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="10" t="n"/>
@@ -7734,11 +7388,11 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="n"/>
-      <c r="B86" s="11" t="n"/>
+      <c r="B86" s="8" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="7" t="n"/>
-      <c r="B87" s="11" t="n"/>
+      <c r="B87" s="8" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="10" t="n"/>
@@ -7746,7 +7400,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="n"/>
-      <c r="B89" s="11" t="n"/>
+      <c r="B89" s="8" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="10" t="n"/>
@@ -7758,7 +7412,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="n"/>
-      <c r="B92" s="11" t="n"/>
+      <c r="B92" s="8" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="10" t="n"/>
@@ -7774,7 +7428,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="n"/>
-      <c r="B96" s="11" t="n"/>
+      <c r="B96" s="8" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="10" t="n"/>
@@ -7782,7 +7436,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="n"/>
-      <c r="B98" s="11" t="n"/>
+      <c r="B98" s="8" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="10" t="n"/>
@@ -7794,11 +7448,11 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="n"/>
-      <c r="B101" s="11" t="n"/>
+      <c r="B101" s="8" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="7" t="n"/>
-      <c r="B102" s="11" t="n"/>
+      <c r="B102" s="8" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="10" t="n"/>
@@ -7810,11 +7464,11 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="n"/>
-      <c r="B105" s="11" t="n"/>
+      <c r="B105" s="8" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="7" t="n"/>
-      <c r="B106" s="11" t="n"/>
+      <c r="B106" s="8" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="10" t="n"/>
@@ -7834,7 +7488,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="n"/>
-      <c r="B111" s="11" t="n"/>
+      <c r="B111" s="8" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="10" t="n"/>
@@ -7842,7 +7496,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="n"/>
-      <c r="B113" s="11" t="n"/>
+      <c r="B113" s="8" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="10" t="n"/>
@@ -7854,15 +7508,15 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="n"/>
-      <c r="B116" s="11" t="n"/>
+      <c r="B116" s="8" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="7" t="n"/>
-      <c r="B117" s="11" t="n"/>
+      <c r="B117" s="8" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="7" t="n"/>
-      <c r="B118" s="11" t="n"/>
+      <c r="B118" s="8" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="10" t="n"/>
@@ -7870,7 +7524,7 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="n"/>
-      <c r="B120" s="11" t="n"/>
+      <c r="B120" s="8" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="10" t="n"/>
@@ -7890,7 +7544,7 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="n"/>
-      <c r="B125" s="11" t="n"/>
+      <c r="B125" s="8" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="10" t="n"/>
@@ -7898,7 +7552,7 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="n"/>
-      <c r="B127" s="11" t="n"/>
+      <c r="B127" s="8" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="10" t="n"/>
@@ -7906,11 +7560,11 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="n"/>
-      <c r="B129" s="11" t="n"/>
+      <c r="B129" s="8" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="7" t="n"/>
-      <c r="B130" s="11" t="n"/>
+      <c r="B130" s="8" t="n"/>
     </row>
     <row r="131">
       <c r="A131" s="10" t="n"/>
@@ -7922,19 +7576,19 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="n"/>
-      <c r="B133" s="11" t="n"/>
+      <c r="B133" s="8" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="7" t="n"/>
-      <c r="B134" s="11" t="n"/>
+      <c r="B134" s="8" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="7" t="n"/>
-      <c r="B135" s="11" t="n"/>
+      <c r="B135" s="8" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="7" t="n"/>
-      <c r="B136" s="11" t="n"/>
+      <c r="B136" s="8" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="10" t="n"/>
@@ -7946,7 +7600,7 @@
     </row>
     <row r="139">
       <c r="A139" s="7" t="n"/>
-      <c r="B139" s="11" t="n"/>
+      <c r="B139" s="8" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="10" t="n"/>
@@ -7958,7 +7612,7 @@
     </row>
     <row r="142">
       <c r="A142" s="7" t="n"/>
-      <c r="B142" s="11" t="n"/>
+      <c r="B142" s="8" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="10" t="n"/>
@@ -7966,7 +7620,7 @@
     </row>
     <row r="144">
       <c r="A144" s="7" t="n"/>
-      <c r="B144" s="11" t="n"/>
+      <c r="B144" s="8" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="10" t="n"/>
@@ -7974,35 +7628,35 @@
     </row>
     <row r="146">
       <c r="A146" s="7" t="n"/>
-      <c r="B146" s="11" t="n"/>
+      <c r="B146" s="8" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="7" t="n"/>
-      <c r="B147" s="11" t="n"/>
+      <c r="B147" s="8" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="7" t="n"/>
-      <c r="B148" s="11" t="n"/>
+      <c r="B148" s="8" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="7" t="n"/>
-      <c r="B149" s="11" t="n"/>
+      <c r="B149" s="8" t="n"/>
     </row>
     <row r="150">
       <c r="A150" s="7" t="n"/>
-      <c r="B150" s="11" t="n"/>
+      <c r="B150" s="8" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="7" t="n"/>
-      <c r="B151" s="11" t="n"/>
+      <c r="B151" s="8" t="n"/>
     </row>
     <row r="152">
       <c r="A152" s="7" t="n"/>
-      <c r="B152" s="11" t="n"/>
+      <c r="B152" s="8" t="n"/>
     </row>
     <row r="153">
       <c r="A153" s="7" t="n"/>
-      <c r="B153" s="11" t="n"/>
+      <c r="B153" s="8" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="10" t="n"/>
@@ -8018,7 +7672,7 @@
     </row>
     <row r="157">
       <c r="A157" s="7" t="n"/>
-      <c r="B157" s="11" t="n"/>
+      <c r="B157" s="8" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="10" t="n"/>
@@ -8026,7 +7680,7 @@
     </row>
     <row r="159">
       <c r="A159" s="7" t="n"/>
-      <c r="B159" s="11" t="n"/>
+      <c r="B159" s="8" t="n"/>
     </row>
     <row r="160">
       <c r="A160" s="10" t="n"/>
@@ -8038,15 +7692,15 @@
     </row>
     <row r="162">
       <c r="A162" s="7" t="n"/>
-      <c r="B162" s="11" t="n"/>
+      <c r="B162" s="8" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="7" t="n"/>
-      <c r="B163" s="11" t="n"/>
+      <c r="B163" s="8" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="7" t="n"/>
-      <c r="B164" s="11" t="n"/>
+      <c r="B164" s="8" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="10" t="n"/>
@@ -8062,19 +7716,19 @@
     </row>
     <row r="168">
       <c r="A168" s="7" t="n"/>
-      <c r="B168" s="11" t="n"/>
+      <c r="B168" s="8" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="7" t="n"/>
-      <c r="B169" s="11" t="n"/>
+      <c r="B169" s="8" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="7" t="n"/>
-      <c r="B170" s="11" t="n"/>
+      <c r="B170" s="8" t="n"/>
     </row>
     <row r="171">
       <c r="A171" s="7" t="n"/>
-      <c r="B171" s="11" t="n"/>
+      <c r="B171" s="8" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="10" t="n"/>
@@ -8082,15 +7736,15 @@
     </row>
     <row r="173">
       <c r="A173" s="7" t="n"/>
-      <c r="B173" s="11" t="n"/>
+      <c r="B173" s="8" t="n"/>
     </row>
     <row r="174">
       <c r="A174" s="7" t="n"/>
-      <c r="B174" s="11" t="n"/>
+      <c r="B174" s="8" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="7" t="n"/>
-      <c r="B175" s="11" t="n"/>
+      <c r="B175" s="8" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="10" t="n"/>
@@ -8106,15 +7760,15 @@
     </row>
     <row r="179">
       <c r="A179" s="7" t="n"/>
-      <c r="B179" s="11" t="n"/>
+      <c r="B179" s="8" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="7" t="n"/>
-      <c r="B180" s="11" t="n"/>
+      <c r="B180" s="8" t="n"/>
     </row>
     <row r="181">
       <c r="A181" s="7" t="n"/>
-      <c r="B181" s="11" t="n"/>
+      <c r="B181" s="8" t="n"/>
     </row>
     <row r="182">
       <c r="A182" s="10" t="n"/>
@@ -8126,11 +7780,11 @@
     </row>
     <row r="184">
       <c r="A184" s="7" t="n"/>
-      <c r="B184" s="11" t="n"/>
+      <c r="B184" s="8" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="7" t="n"/>
-      <c r="B185" s="11" t="n"/>
+      <c r="B185" s="8" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="10" t="n"/>
@@ -8142,7 +7796,7 @@
     </row>
     <row r="188">
       <c r="A188" s="7" t="n"/>
-      <c r="B188" s="11" t="n"/>
+      <c r="B188" s="8" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="10" t="n"/>
@@ -8158,19 +7812,19 @@
     </row>
     <row r="192">
       <c r="A192" s="7" t="n"/>
-      <c r="B192" s="11" t="n"/>
+      <c r="B192" s="8" t="n"/>
     </row>
     <row r="193">
       <c r="A193" s="7" t="n"/>
-      <c r="B193" s="11" t="n"/>
+      <c r="B193" s="8" t="n"/>
     </row>
     <row r="194">
       <c r="A194" s="7" t="n"/>
-      <c r="B194" s="11" t="n"/>
+      <c r="B194" s="8" t="n"/>
     </row>
     <row r="195">
       <c r="A195" s="7" t="n"/>
-      <c r="B195" s="11" t="n"/>
+      <c r="B195" s="8" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="10" t="n"/>
@@ -8182,19 +7836,19 @@
     </row>
     <row r="198">
       <c r="A198" s="7" t="n"/>
-      <c r="B198" s="11" t="n"/>
+      <c r="B198" s="8" t="n"/>
     </row>
     <row r="199">
       <c r="A199" s="7" t="n"/>
-      <c r="B199" s="11" t="n"/>
+      <c r="B199" s="8" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="7" t="n"/>
-      <c r="B200" s="11" t="n"/>
+      <c r="B200" s="8" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="7" t="n"/>
-      <c r="B201" s="11" t="n"/>
+      <c r="B201" s="8" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="10" t="n"/>
@@ -8214,11 +7868,11 @@
     </row>
     <row r="206">
       <c r="A206" s="7" t="n"/>
-      <c r="B206" s="11" t="n"/>
+      <c r="B206" s="8" t="n"/>
     </row>
     <row r="207">
       <c r="A207" s="7" t="n"/>
-      <c r="B207" s="11" t="n"/>
+      <c r="B207" s="8" t="n"/>
     </row>
     <row r="208">
       <c r="A208" s="10" t="n"/>
@@ -8238,11 +7892,11 @@
     </row>
     <row r="212">
       <c r="A212" s="7" t="n"/>
-      <c r="B212" s="11" t="n"/>
+      <c r="B212" s="8" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="7" t="n"/>
-      <c r="B213" s="11" t="n"/>
+      <c r="B213" s="8" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="10" t="n"/>
@@ -8250,23 +7904,23 @@
     </row>
     <row r="215">
       <c r="A215" s="7" t="n"/>
-      <c r="B215" s="11" t="n"/>
+      <c r="B215" s="8" t="n"/>
     </row>
     <row r="216">
       <c r="A216" s="7" t="n"/>
-      <c r="B216" s="11" t="n"/>
+      <c r="B216" s="8" t="n"/>
     </row>
     <row r="217">
       <c r="A217" s="7" t="n"/>
-      <c r="B217" s="11" t="n"/>
+      <c r="B217" s="8" t="n"/>
     </row>
     <row r="218">
       <c r="A218" s="7" t="n"/>
-      <c r="B218" s="11" t="n"/>
+      <c r="B218" s="8" t="n"/>
     </row>
     <row r="219">
       <c r="A219" s="7" t="n"/>
-      <c r="B219" s="11" t="n"/>
+      <c r="B219" s="8" t="n"/>
     </row>
     <row r="220">
       <c r="A220" s="10" t="n"/>
@@ -8274,11 +7928,11 @@
     </row>
     <row r="221">
       <c r="A221" s="7" t="n"/>
-      <c r="B221" s="11" t="n"/>
+      <c r="B221" s="8" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="7" t="n"/>
-      <c r="B222" s="11" t="n"/>
+      <c r="B222" s="8" t="n"/>
     </row>
     <row r="223">
       <c r="A223" s="10" t="n"/>
@@ -8286,19 +7940,19 @@
     </row>
     <row r="224">
       <c r="A224" s="7" t="n"/>
-      <c r="B224" s="11" t="n"/>
+      <c r="B224" s="8" t="n"/>
     </row>
     <row r="225">
       <c r="A225" s="7" t="n"/>
-      <c r="B225" s="11" t="n"/>
+      <c r="B225" s="8" t="n"/>
     </row>
     <row r="226">
       <c r="A226" s="7" t="n"/>
-      <c r="B226" s="11" t="n"/>
+      <c r="B226" s="8" t="n"/>
     </row>
     <row r="227">
       <c r="A227" s="7" t="n"/>
-      <c r="B227" s="11" t="n"/>
+      <c r="B227" s="8" t="n"/>
     </row>
     <row r="228">
       <c r="A228" s="10" t="n"/>
@@ -8306,15 +7960,15 @@
     </row>
     <row r="229">
       <c r="A229" s="7" t="n"/>
-      <c r="B229" s="11" t="n"/>
+      <c r="B229" s="8" t="n"/>
     </row>
     <row r="230">
       <c r="A230" s="7" t="n"/>
-      <c r="B230" s="11" t="n"/>
+      <c r="B230" s="8" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="7" t="n"/>
-      <c r="B231" s="11" t="n"/>
+      <c r="B231" s="8" t="n"/>
     </row>
     <row r="232">
       <c r="A232" s="10" t="n"/>
@@ -8322,7 +7976,7 @@
     </row>
     <row r="233">
       <c r="A233" s="7" t="n"/>
-      <c r="B233" s="11" t="n"/>
+      <c r="B233" s="8" t="n"/>
     </row>
     <row r="234">
       <c r="A234" s="10" t="n"/>
@@ -8330,11 +7984,11 @@
     </row>
     <row r="235">
       <c r="A235" s="7" t="n"/>
-      <c r="B235" s="11" t="n"/>
+      <c r="B235" s="8" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="7" t="n"/>
-      <c r="B236" s="11" t="n"/>
+      <c r="B236" s="8" t="n"/>
     </row>
     <row r="237">
       <c r="A237" s="10" t="n"/>
@@ -8342,7 +7996,7 @@
     </row>
     <row r="238">
       <c r="A238" s="7" t="n"/>
-      <c r="B238" s="11" t="n"/>
+      <c r="B238" s="8" t="n"/>
     </row>
     <row r="239">
       <c r="A239" s="10" t="n"/>
@@ -8350,7 +8004,7 @@
     </row>
     <row r="240">
       <c r="A240" s="7" t="n"/>
-      <c r="B240" s="11" t="n"/>
+      <c r="B240" s="8" t="n"/>
     </row>
     <row r="241">
       <c r="A241" s="10" t="n"/>
@@ -8366,19 +8020,19 @@
     </row>
     <row r="244">
       <c r="A244" s="7" t="n"/>
-      <c r="B244" s="11" t="n"/>
+      <c r="B244" s="8" t="n"/>
     </row>
     <row r="245">
       <c r="A245" s="7" t="n"/>
-      <c r="B245" s="11" t="n"/>
+      <c r="B245" s="8" t="n"/>
     </row>
     <row r="246">
       <c r="A246" s="7" t="n"/>
-      <c r="B246" s="11" t="n"/>
+      <c r="B246" s="8" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="7" t="n"/>
-      <c r="B247" s="11" t="n"/>
+      <c r="B247" s="8" t="n"/>
     </row>
     <row r="248">
       <c r="A248" s="10" t="n"/>
@@ -8386,23 +8040,23 @@
     </row>
     <row r="249">
       <c r="A249" s="7" t="n"/>
-      <c r="B249" s="11" t="n"/>
+      <c r="B249" s="8" t="n"/>
     </row>
     <row r="250">
       <c r="A250" s="7" t="n"/>
-      <c r="B250" s="11" t="n"/>
+      <c r="B250" s="8" t="n"/>
     </row>
     <row r="251">
       <c r="A251" s="7" t="n"/>
-      <c r="B251" s="11" t="n"/>
+      <c r="B251" s="8" t="n"/>
     </row>
     <row r="252">
       <c r="A252" s="7" t="n"/>
-      <c r="B252" s="11" t="n"/>
+      <c r="B252" s="8" t="n"/>
     </row>
     <row r="253">
       <c r="A253" s="7" t="n"/>
-      <c r="B253" s="11" t="n"/>
+      <c r="B253" s="8" t="n"/>
     </row>
     <row r="254">
       <c r="A254" s="10" t="n"/>
@@ -8410,23 +8064,23 @@
     </row>
     <row r="255">
       <c r="A255" s="7" t="n"/>
-      <c r="B255" s="11" t="n"/>
+      <c r="B255" s="8" t="n"/>
     </row>
     <row r="256">
       <c r="A256" s="7" t="n"/>
-      <c r="B256" s="11" t="n"/>
+      <c r="B256" s="8" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="7" t="n"/>
-      <c r="B257" s="11" t="n"/>
+      <c r="B257" s="8" t="n"/>
     </row>
     <row r="258">
       <c r="A258" s="7" t="n"/>
-      <c r="B258" s="11" t="n"/>
+      <c r="B258" s="8" t="n"/>
     </row>
     <row r="259">
       <c r="A259" s="7" t="n"/>
-      <c r="B259" s="11" t="n"/>
+      <c r="B259" s="8" t="n"/>
     </row>
     <row r="260">
       <c r="A260" s="10" t="n"/>
@@ -8434,7 +8088,7 @@
     </row>
     <row r="261">
       <c r="A261" s="7" t="n"/>
-      <c r="B261" s="11" t="n"/>
+      <c r="B261" s="8" t="n"/>
     </row>
     <row r="262">
       <c r="A262" s="10" t="n"/>
@@ -8442,11 +8096,11 @@
     </row>
     <row r="263">
       <c r="A263" s="7" t="n"/>
-      <c r="B263" s="11" t="n"/>
+      <c r="B263" s="8" t="n"/>
     </row>
     <row r="264">
       <c r="A264" s="7" t="n"/>
-      <c r="B264" s="11" t="n"/>
+      <c r="B264" s="8" t="n"/>
     </row>
     <row r="265">
       <c r="A265" s="10" t="n"/>
@@ -8462,19 +8116,19 @@
     </row>
     <row r="268">
       <c r="A268" s="7" t="n"/>
-      <c r="B268" s="11" t="n"/>
+      <c r="B268" s="8" t="n"/>
     </row>
     <row r="269">
       <c r="A269" s="7" t="n"/>
-      <c r="B269" s="11" t="n"/>
+      <c r="B269" s="8" t="n"/>
     </row>
     <row r="270">
       <c r="A270" s="7" t="n"/>
-      <c r="B270" s="11" t="n"/>
+      <c r="B270" s="8" t="n"/>
     </row>
     <row r="271">
       <c r="A271" s="7" t="n"/>
-      <c r="B271" s="11" t="n"/>
+      <c r="B271" s="8" t="n"/>
     </row>
     <row r="272">
       <c r="A272" s="10" t="n"/>
@@ -8482,7 +8136,7 @@
     </row>
     <row r="273">
       <c r="A273" s="7" t="n"/>
-      <c r="B273" s="11" t="n"/>
+      <c r="B273" s="8" t="n"/>
     </row>
     <row r="274">
       <c r="A274" s="10" t="n"/>
@@ -8490,7 +8144,7 @@
     </row>
     <row r="275">
       <c r="A275" s="7" t="n"/>
-      <c r="B275" s="11" t="n"/>
+      <c r="B275" s="8" t="n"/>
     </row>
     <row r="276">
       <c r="A276" s="10" t="n"/>
@@ -8526,11 +8180,11 @@
     </row>
     <row r="284">
       <c r="A284" s="7" t="n"/>
-      <c r="B284" s="11" t="n"/>
+      <c r="B284" s="8" t="n"/>
     </row>
     <row r="285">
       <c r="A285" s="7" t="n"/>
-      <c r="B285" s="11" t="n"/>
+      <c r="B285" s="8" t="n"/>
     </row>
     <row r="286">
       <c r="A286" s="10" t="n"/>
@@ -8538,7 +8192,7 @@
     </row>
     <row r="287">
       <c r="A287" s="7" t="n"/>
-      <c r="B287" s="11" t="n"/>
+      <c r="B287" s="8" t="n"/>
     </row>
     <row r="288">
       <c r="A288" s="10" t="n"/>
@@ -8546,7 +8200,7 @@
     </row>
     <row r="289">
       <c r="A289" s="7" t="n"/>
-      <c r="B289" s="11" t="n"/>
+      <c r="B289" s="8" t="n"/>
     </row>
     <row r="290">
       <c r="A290" s="10" t="n"/>
@@ -8554,7 +8208,7 @@
     </row>
     <row r="291">
       <c r="A291" s="7" t="n"/>
-      <c r="B291" s="11" t="n"/>
+      <c r="B291" s="8" t="n"/>
     </row>
     <row r="292">
       <c r="A292" s="10" t="n"/>
@@ -8562,7 +8216,7 @@
     </row>
     <row r="293">
       <c r="A293" s="7" t="n"/>
-      <c r="B293" s="11" t="n"/>
+      <c r="B293" s="8" t="n"/>
     </row>
     <row r="294">
       <c r="A294" s="10" t="n"/>
@@ -8578,7 +8232,7 @@
     </row>
     <row r="297">
       <c r="A297" s="7" t="n"/>
-      <c r="B297" s="11" t="n"/>
+      <c r="B297" s="8" t="n"/>
     </row>
     <row r="298">
       <c r="A298" s="10" t="n"/>
@@ -8586,7 +8240,7 @@
     </row>
     <row r="299">
       <c r="A299" s="7" t="n"/>
-      <c r="B299" s="11" t="n"/>
+      <c r="B299" s="8" t="n"/>
     </row>
     <row r="300">
       <c r="A300" s="10" t="n"/>
@@ -8610,19 +8264,19 @@
     </row>
     <row r="305">
       <c r="A305" s="7" t="n"/>
-      <c r="B305" s="11" t="n"/>
+      <c r="B305" s="8" t="n"/>
     </row>
     <row r="306">
       <c r="A306" s="7" t="n"/>
-      <c r="B306" s="11" t="n"/>
+      <c r="B306" s="8" t="n"/>
     </row>
     <row r="307">
       <c r="A307" s="7" t="n"/>
-      <c r="B307" s="11" t="n"/>
+      <c r="B307" s="8" t="n"/>
     </row>
     <row r="308">
       <c r="A308" s="7" t="n"/>
-      <c r="B308" s="11" t="n"/>
+      <c r="B308" s="8" t="n"/>
     </row>
     <row r="309">
       <c r="A309" s="10" t="n"/>
@@ -8634,7 +8288,7 @@
     </row>
     <row r="311">
       <c r="A311" s="7" t="n"/>
-      <c r="B311" s="11" t="n"/>
+      <c r="B311" s="8" t="n"/>
     </row>
     <row r="312">
       <c r="A312" s="10" t="n"/>
@@ -8642,7 +8296,7 @@
     </row>
     <row r="313">
       <c r="A313" s="7" t="n"/>
-      <c r="B313" s="11" t="n"/>
+      <c r="B313" s="8" t="n"/>
     </row>
     <row r="314">
       <c r="A314" s="10" t="n"/>
@@ -8650,11 +8304,11 @@
     </row>
     <row r="315">
       <c r="A315" s="7" t="n"/>
-      <c r="B315" s="11" t="n"/>
+      <c r="B315" s="8" t="n"/>
     </row>
     <row r="316">
       <c r="A316" s="7" t="n"/>
-      <c r="B316" s="11" t="n"/>
+      <c r="B316" s="8" t="n"/>
     </row>
     <row r="317">
       <c r="A317" s="10" t="n"/>
@@ -8666,7 +8320,7 @@
     </row>
     <row r="319">
       <c r="A319" s="7" t="n"/>
-      <c r="B319" s="11" t="n"/>
+      <c r="B319" s="8" t="n"/>
     </row>
     <row r="320">
       <c r="A320" s="10" t="n"/>
@@ -8674,11 +8328,11 @@
     </row>
     <row r="321">
       <c r="A321" s="7" t="n"/>
-      <c r="B321" s="11" t="n"/>
+      <c r="B321" s="8" t="n"/>
     </row>
     <row r="322">
       <c r="A322" s="7" t="n"/>
-      <c r="B322" s="11" t="n"/>
+      <c r="B322" s="8" t="n"/>
     </row>
     <row r="323">
       <c r="A323" s="10" t="n"/>
@@ -8686,7 +8340,7 @@
     </row>
     <row r="324">
       <c r="A324" s="7" t="n"/>
-      <c r="B324" s="11" t="n"/>
+      <c r="B324" s="8" t="n"/>
     </row>
     <row r="325">
       <c r="A325" s="10" t="n"/>
@@ -8694,27 +8348,27 @@
     </row>
     <row r="326">
       <c r="A326" s="7" t="n"/>
-      <c r="B326" s="11" t="n"/>
+      <c r="B326" s="8" t="n"/>
     </row>
     <row r="327">
       <c r="A327" s="7" t="n"/>
-      <c r="B327" s="11" t="n"/>
+      <c r="B327" s="8" t="n"/>
     </row>
     <row r="328">
       <c r="A328" s="7" t="n"/>
-      <c r="B328" s="11" t="n"/>
+      <c r="B328" s="8" t="n"/>
     </row>
     <row r="329">
       <c r="A329" s="7" t="n"/>
-      <c r="B329" s="11" t="n"/>
+      <c r="B329" s="8" t="n"/>
     </row>
     <row r="330">
       <c r="A330" s="7" t="n"/>
-      <c r="B330" s="11" t="n"/>
+      <c r="B330" s="8" t="n"/>
     </row>
     <row r="331">
       <c r="A331" s="7" t="n"/>
-      <c r="B331" s="11" t="n"/>
+      <c r="B331" s="8" t="n"/>
     </row>
     <row r="332">
       <c r="A332" s="10" t="n"/>
@@ -8722,7 +8376,7 @@
     </row>
     <row r="333">
       <c r="A333" s="7" t="n"/>
-      <c r="B333" s="11" t="n"/>
+      <c r="B333" s="8" t="n"/>
     </row>
     <row r="334">
       <c r="A334" s="10" t="n"/>
@@ -8730,7 +8384,7 @@
     </row>
     <row r="335">
       <c r="A335" s="7" t="n"/>
-      <c r="B335" s="11" t="n"/>
+      <c r="B335" s="8" t="n"/>
     </row>
     <row r="336">
       <c r="A336" s="10" t="n"/>
@@ -8738,7 +8392,7 @@
     </row>
     <row r="337">
       <c r="A337" s="7" t="n"/>
-      <c r="B337" s="11" t="n"/>
+      <c r="B337" s="8" t="n"/>
     </row>
     <row r="338">
       <c r="A338" s="10" t="n"/>
@@ -8750,7 +8404,7 @@
     </row>
     <row r="340">
       <c r="A340" s="7" t="n"/>
-      <c r="B340" s="11" t="n"/>
+      <c r="B340" s="8" t="n"/>
     </row>
     <row r="341">
       <c r="A341" s="10" t="n"/>
@@ -8778,7 +8432,7 @@
     </row>
     <row r="347">
       <c r="A347" s="7" t="n"/>
-      <c r="B347" s="11" t="n"/>
+      <c r="B347" s="8" t="n"/>
     </row>
     <row r="348">
       <c r="A348" s="10" t="n"/>
@@ -8786,15 +8440,15 @@
     </row>
     <row r="349">
       <c r="A349" s="7" t="n"/>
-      <c r="B349" s="11" t="n"/>
+      <c r="B349" s="8" t="n"/>
     </row>
     <row r="350">
       <c r="A350" s="7" t="n"/>
-      <c r="B350" s="11" t="n"/>
+      <c r="B350" s="8" t="n"/>
     </row>
     <row r="351">
       <c r="A351" s="7" t="n"/>
-      <c r="B351" s="11" t="n"/>
+      <c r="B351" s="8" t="n"/>
     </row>
     <row r="352">
       <c r="A352" s="10" t="n"/>
@@ -8810,7 +8464,7 @@
     </row>
     <row r="355">
       <c r="A355" s="7" t="n"/>
-      <c r="B355" s="11" t="n"/>
+      <c r="B355" s="8" t="n"/>
     </row>
     <row r="356">
       <c r="A356" s="10" t="n"/>
@@ -8818,11 +8472,11 @@
     </row>
     <row r="357">
       <c r="A357" s="7" t="n"/>
-      <c r="B357" s="11" t="n"/>
+      <c r="B357" s="8" t="n"/>
     </row>
     <row r="358">
       <c r="A358" s="7" t="n"/>
-      <c r="B358" s="11" t="n"/>
+      <c r="B358" s="8" t="n"/>
     </row>
     <row r="359">
       <c r="A359" s="10" t="n"/>
@@ -8830,7 +8484,7 @@
     </row>
     <row r="360">
       <c r="A360" s="7" t="n"/>
-      <c r="B360" s="11" t="n"/>
+      <c r="B360" s="8" t="n"/>
     </row>
     <row r="361">
       <c r="A361" s="10" t="n"/>
@@ -8838,11 +8492,11 @@
     </row>
     <row r="362">
       <c r="A362" s="7" t="n"/>
-      <c r="B362" s="11" t="n"/>
+      <c r="B362" s="8" t="n"/>
     </row>
     <row r="363">
       <c r="A363" s="7" t="n"/>
-      <c r="B363" s="11" t="n"/>
+      <c r="B363" s="8" t="n"/>
     </row>
     <row r="364">
       <c r="A364" s="10" t="n"/>
@@ -8854,7 +8508,7 @@
     </row>
     <row r="366">
       <c r="A366" s="7" t="n"/>
-      <c r="B366" s="11" t="n"/>
+      <c r="B366" s="8" t="n"/>
     </row>
     <row r="367">
       <c r="A367" s="10" t="n"/>
@@ -8862,7 +8516,7 @@
     </row>
     <row r="368">
       <c r="A368" s="7" t="n"/>
-      <c r="B368" s="11" t="n"/>
+      <c r="B368" s="8" t="n"/>
     </row>
     <row r="369">
       <c r="A369" s="10" t="n"/>
@@ -8874,7 +8528,7 @@
     </row>
     <row r="371">
       <c r="A371" s="7" t="n"/>
-      <c r="B371" s="11" t="n"/>
+      <c r="B371" s="8" t="n"/>
     </row>
     <row r="372">
       <c r="A372" s="10" t="n"/>
@@ -8882,7 +8536,7 @@
     </row>
     <row r="373">
       <c r="A373" s="7" t="n"/>
-      <c r="B373" s="11" t="n"/>
+      <c r="B373" s="8" t="n"/>
     </row>
     <row r="374">
       <c r="A374" s="10" t="n"/>
@@ -8890,7 +8544,7 @@
     </row>
     <row r="375">
       <c r="A375" s="7" t="n"/>
-      <c r="B375" s="11" t="n"/>
+      <c r="B375" s="8" t="n"/>
     </row>
     <row r="376">
       <c r="A376" s="10" t="n"/>
@@ -8902,7 +8556,7 @@
     </row>
     <row r="378">
       <c r="A378" s="7" t="n"/>
-      <c r="B378" s="11" t="n"/>
+      <c r="B378" s="8" t="n"/>
     </row>
     <row r="379">
       <c r="A379" s="10" t="n"/>
@@ -8910,7 +8564,7 @@
     </row>
     <row r="380">
       <c r="A380" s="7" t="n"/>
-      <c r="B380" s="11" t="n"/>
+      <c r="B380" s="8" t="n"/>
     </row>
     <row r="381">
       <c r="A381" s="10" t="n"/>
@@ -8926,23 +8580,23 @@
     </row>
     <row r="384">
       <c r="A384" s="7" t="n"/>
-      <c r="B384" s="11" t="n"/>
+      <c r="B384" s="8" t="n"/>
     </row>
     <row r="385">
       <c r="A385" s="7" t="n"/>
-      <c r="B385" s="11" t="n"/>
+      <c r="B385" s="8" t="n"/>
     </row>
     <row r="386">
       <c r="A386" s="7" t="n"/>
-      <c r="B386" s="11" t="n"/>
+      <c r="B386" s="8" t="n"/>
     </row>
     <row r="387">
       <c r="A387" s="7" t="n"/>
-      <c r="B387" s="11" t="n"/>
+      <c r="B387" s="8" t="n"/>
     </row>
     <row r="388">
       <c r="A388" s="7" t="n"/>
-      <c r="B388" s="11" t="n"/>
+      <c r="B388" s="8" t="n"/>
     </row>
     <row r="389">
       <c r="A389" s="10" t="n"/>
@@ -8950,15 +8604,15 @@
     </row>
     <row r="390">
       <c r="A390" s="7" t="n"/>
-      <c r="B390" s="11" t="n"/>
+      <c r="B390" s="8" t="n"/>
     </row>
     <row r="391">
       <c r="A391" s="7" t="n"/>
-      <c r="B391" s="11" t="n"/>
+      <c r="B391" s="8" t="n"/>
     </row>
     <row r="392">
       <c r="A392" s="7" t="n"/>
-      <c r="B392" s="11" t="n"/>
+      <c r="B392" s="8" t="n"/>
     </row>
     <row r="393">
       <c r="A393" s="10" t="n"/>
@@ -8974,11 +8628,11 @@
     </row>
     <row r="396">
       <c r="A396" s="7" t="n"/>
-      <c r="B396" s="11" t="n"/>
+      <c r="B396" s="8" t="n"/>
     </row>
     <row r="397">
       <c r="A397" s="7" t="n"/>
-      <c r="B397" s="11" t="n"/>
+      <c r="B397" s="8" t="n"/>
     </row>
     <row r="398">
       <c r="A398" s="10" t="n"/>
@@ -8986,23 +8640,23 @@
     </row>
     <row r="399">
       <c r="A399" s="7" t="n"/>
-      <c r="B399" s="11" t="n"/>
+      <c r="B399" s="8" t="n"/>
     </row>
     <row r="400">
       <c r="A400" s="7" t="n"/>
-      <c r="B400" s="11" t="n"/>
+      <c r="B400" s="8" t="n"/>
     </row>
     <row r="401">
       <c r="A401" s="7" t="n"/>
-      <c r="B401" s="11" t="n"/>
+      <c r="B401" s="8" t="n"/>
     </row>
     <row r="402">
       <c r="A402" s="7" t="n"/>
-      <c r="B402" s="11" t="n"/>
+      <c r="B402" s="8" t="n"/>
     </row>
     <row r="403">
       <c r="A403" s="7" t="n"/>
-      <c r="B403" s="11" t="n"/>
+      <c r="B403" s="8" t="n"/>
     </row>
     <row r="404">
       <c r="A404" s="10" t="n"/>
@@ -9010,15 +8664,15 @@
     </row>
     <row r="405">
       <c r="A405" s="7" t="n"/>
-      <c r="B405" s="11" t="n"/>
+      <c r="B405" s="8" t="n"/>
     </row>
     <row r="406">
       <c r="A406" s="7" t="n"/>
-      <c r="B406" s="11" t="n"/>
+      <c r="B406" s="8" t="n"/>
     </row>
     <row r="407">
       <c r="A407" s="7" t="n"/>
-      <c r="B407" s="11" t="n"/>
+      <c r="B407" s="8" t="n"/>
     </row>
     <row r="408">
       <c r="A408" s="10" t="n"/>
@@ -9034,7 +8688,7 @@
     </row>
     <row r="411">
       <c r="A411" s="7" t="n"/>
-      <c r="B411" s="11" t="n"/>
+      <c r="B411" s="8" t="n"/>
     </row>
     <row r="412">
       <c r="A412" s="10" t="n"/>
@@ -9050,15 +8704,15 @@
     </row>
     <row r="415">
       <c r="A415" s="7" t="n"/>
-      <c r="B415" s="11" t="n"/>
+      <c r="B415" s="8" t="n"/>
     </row>
     <row r="416">
       <c r="A416" s="7" t="n"/>
-      <c r="B416" s="11" t="n"/>
+      <c r="B416" s="8" t="n"/>
     </row>
     <row r="417">
       <c r="A417" s="7" t="n"/>
-      <c r="B417" s="11" t="n"/>
+      <c r="B417" s="8" t="n"/>
     </row>
     <row r="418">
       <c r="A418" s="10" t="n"/>
@@ -9070,7 +8724,7 @@
     </row>
     <row r="420">
       <c r="A420" s="7" t="n"/>
-      <c r="B420" s="11" t="n"/>
+      <c r="B420" s="8" t="n"/>
     </row>
     <row r="421">
       <c r="A421" s="10" t="n"/>
@@ -9082,7 +8736,7 @@
     </row>
     <row r="423">
       <c r="A423" s="7" t="n"/>
-      <c r="B423" s="11" t="n"/>
+      <c r="B423" s="8" t="n"/>
     </row>
     <row r="424">
       <c r="A424" s="10" t="n"/>
@@ -9094,7 +8748,7 @@
     </row>
     <row r="426">
       <c r="A426" s="7" t="n"/>
-      <c r="B426" s="11" t="n"/>
+      <c r="B426" s="8" t="n"/>
     </row>
     <row r="427">
       <c r="A427" s="10" t="n"/>
@@ -9106,11 +8760,11 @@
     </row>
     <row r="429">
       <c r="A429" s="7" t="n"/>
-      <c r="B429" s="11" t="n"/>
+      <c r="B429" s="8" t="n"/>
     </row>
     <row r="430">
       <c r="A430" s="7" t="n"/>
-      <c r="B430" s="11" t="n"/>
+      <c r="B430" s="8" t="n"/>
     </row>
     <row r="431">
       <c r="A431" s="10" t="n"/>
@@ -9118,7 +8772,7 @@
     </row>
     <row r="432">
       <c r="A432" s="7" t="n"/>
-      <c r="B432" s="11" t="n"/>
+      <c r="B432" s="8" t="n"/>
     </row>
     <row r="433">
       <c r="A433" s="10" t="n"/>
@@ -9126,7 +8780,7 @@
     </row>
     <row r="434">
       <c r="A434" s="7" t="n"/>
-      <c r="B434" s="11" t="n"/>
+      <c r="B434" s="8" t="n"/>
     </row>
     <row r="435">
       <c r="A435" s="10" t="n"/>
@@ -9134,7 +8788,7 @@
     </row>
     <row r="436">
       <c r="A436" s="7" t="n"/>
-      <c r="B436" s="11" t="n"/>
+      <c r="B436" s="8" t="n"/>
     </row>
     <row r="437">
       <c r="A437" s="10" t="n"/>
@@ -9150,7 +8804,7 @@
     </row>
     <row r="440">
       <c r="A440" s="7" t="n"/>
-      <c r="B440" s="11" t="n"/>
+      <c r="B440" s="8" t="n"/>
     </row>
     <row r="441">
       <c r="A441" s="10" t="n"/>
@@ -9158,7 +8812,7 @@
     </row>
     <row r="442">
       <c r="A442" s="7" t="n"/>
-      <c r="B442" s="11" t="n"/>
+      <c r="B442" s="8" t="n"/>
     </row>
     <row r="443">
       <c r="A443" s="10" t="n"/>
@@ -9178,15 +8832,15 @@
     </row>
     <row r="447">
       <c r="A447" s="7" t="n"/>
-      <c r="B447" s="11" t="n"/>
+      <c r="B447" s="8" t="n"/>
     </row>
     <row r="448">
       <c r="A448" s="7" t="n"/>
-      <c r="B448" s="11" t="n"/>
+      <c r="B448" s="8" t="n"/>
     </row>
     <row r="449">
       <c r="A449" s="7" t="n"/>
-      <c r="B449" s="11" t="n"/>
+      <c r="B449" s="8" t="n"/>
     </row>
     <row r="450">
       <c r="A450" s="10" t="n"/>
@@ -9194,15 +8848,15 @@
     </row>
     <row r="451">
       <c r="A451" s="7" t="n"/>
-      <c r="B451" s="11" t="n"/>
+      <c r="B451" s="8" t="n"/>
     </row>
     <row r="452">
       <c r="A452" s="7" t="n"/>
-      <c r="B452" s="11" t="n"/>
+      <c r="B452" s="8" t="n"/>
     </row>
     <row r="453">
       <c r="A453" s="7" t="n"/>
-      <c r="B453" s="11" t="n"/>
+      <c r="B453" s="8" t="n"/>
     </row>
     <row r="454">
       <c r="A454" s="10" t="n"/>
@@ -9214,7 +8868,7 @@
     </row>
     <row r="456">
       <c r="A456" s="7" t="n"/>
-      <c r="B456" s="11" t="n"/>
+      <c r="B456" s="8" t="n"/>
     </row>
     <row r="457">
       <c r="A457" s="10" t="n"/>
@@ -9226,7 +8880,7 @@
     </row>
     <row r="459">
       <c r="A459" s="7" t="n"/>
-      <c r="B459" s="11" t="n"/>
+      <c r="B459" s="8" t="n"/>
     </row>
     <row r="460">
       <c r="A460" s="10" t="n"/>
@@ -9234,11 +8888,11 @@
     </row>
     <row r="461">
       <c r="A461" s="7" t="n"/>
-      <c r="B461" s="11" t="n"/>
+      <c r="B461" s="8" t="n"/>
     </row>
     <row r="462">
       <c r="A462" s="7" t="n"/>
-      <c r="B462" s="11" t="n"/>
+      <c r="B462" s="8" t="n"/>
     </row>
     <row r="463">
       <c r="A463" s="10" t="n"/>
@@ -9250,11 +8904,11 @@
     </row>
     <row r="465">
       <c r="A465" s="7" t="n"/>
-      <c r="B465" s="11" t="n"/>
+      <c r="B465" s="8" t="n"/>
     </row>
     <row r="466">
       <c r="A466" s="7" t="n"/>
-      <c r="B466" s="11" t="n"/>
+      <c r="B466" s="8" t="n"/>
     </row>
     <row r="467">
       <c r="A467" s="10" t="n"/>
@@ -9262,15 +8916,15 @@
     </row>
     <row r="468">
       <c r="A468" s="7" t="n"/>
-      <c r="B468" s="11" t="n"/>
+      <c r="B468" s="8" t="n"/>
     </row>
     <row r="469">
       <c r="A469" s="7" t="n"/>
-      <c r="B469" s="11" t="n"/>
+      <c r="B469" s="8" t="n"/>
     </row>
     <row r="470">
       <c r="A470" s="7" t="n"/>
-      <c r="B470" s="11" t="n"/>
+      <c r="B470" s="8" t="n"/>
     </row>
     <row r="471">
       <c r="A471" s="10" t="n"/>
@@ -9278,15 +8932,15 @@
     </row>
     <row r="472">
       <c r="A472" s="7" t="n"/>
-      <c r="B472" s="11" t="n"/>
+      <c r="B472" s="8" t="n"/>
     </row>
     <row r="473">
       <c r="A473" s="7" t="n"/>
-      <c r="B473" s="11" t="n"/>
+      <c r="B473" s="8" t="n"/>
     </row>
     <row r="474">
       <c r="A474" s="7" t="n"/>
-      <c r="B474" s="11" t="n"/>
+      <c r="B474" s="8" t="n"/>
     </row>
     <row r="475">
       <c r="A475" s="10" t="n"/>
@@ -9306,35 +8960,35 @@
     </row>
     <row r="479">
       <c r="A479" s="7" t="n"/>
-      <c r="B479" s="11" t="n"/>
+      <c r="B479" s="8" t="n"/>
     </row>
     <row r="480">
       <c r="A480" s="7" t="n"/>
-      <c r="B480" s="11" t="n"/>
+      <c r="B480" s="8" t="n"/>
     </row>
     <row r="481">
       <c r="A481" s="7" t="n"/>
-      <c r="B481" s="11" t="n"/>
+      <c r="B481" s="8" t="n"/>
     </row>
     <row r="482">
       <c r="A482" s="7" t="n"/>
-      <c r="B482" s="11" t="n"/>
+      <c r="B482" s="8" t="n"/>
     </row>
     <row r="483">
       <c r="A483" s="7" t="n"/>
-      <c r="B483" s="11" t="n"/>
+      <c r="B483" s="8" t="n"/>
     </row>
     <row r="484">
       <c r="A484" s="7" t="n"/>
-      <c r="B484" s="11" t="n"/>
+      <c r="B484" s="8" t="n"/>
     </row>
     <row r="485">
       <c r="A485" s="7" t="n"/>
-      <c r="B485" s="11" t="n"/>
+      <c r="B485" s="8" t="n"/>
     </row>
     <row r="486">
       <c r="A486" s="7" t="n"/>
-      <c r="B486" s="11" t="n"/>
+      <c r="B486" s="8" t="n"/>
     </row>
     <row r="487">
       <c r="A487" s="10" t="n"/>
@@ -9350,7 +9004,7 @@
     </row>
     <row r="490">
       <c r="A490" s="7" t="n"/>
-      <c r="B490" s="11" t="n"/>
+      <c r="B490" s="8" t="n"/>
     </row>
     <row r="491">
       <c r="A491" s="10" t="n"/>
@@ -9382,11 +9036,11 @@
     </row>
     <row r="498">
       <c r="A498" s="7" t="n"/>
-      <c r="B498" s="11" t="n"/>
+      <c r="B498" s="8" t="n"/>
     </row>
     <row r="499">
       <c r="A499" s="7" t="n"/>
-      <c r="B499" s="11" t="n"/>
+      <c r="B499" s="8" t="n"/>
     </row>
     <row r="500">
       <c r="A500" s="10" t="n"/>
@@ -9394,11 +9048,11 @@
     </row>
     <row r="501">
       <c r="A501" s="7" t="n"/>
-      <c r="B501" s="11" t="n"/>
+      <c r="B501" s="8" t="n"/>
     </row>
     <row r="502">
       <c r="A502" s="7" t="n"/>
-      <c r="B502" s="11" t="n"/>
+      <c r="B502" s="8" t="n"/>
     </row>
     <row r="503">
       <c r="A503" s="10" t="n"/>
@@ -9406,7 +9060,7 @@
     </row>
     <row r="504">
       <c r="A504" s="7" t="n"/>
-      <c r="B504" s="11" t="n"/>
+      <c r="B504" s="8" t="n"/>
     </row>
     <row r="505">
       <c r="A505" s="10" t="n"/>
@@ -9414,15 +9068,15 @@
     </row>
     <row r="506">
       <c r="A506" s="7" t="n"/>
-      <c r="B506" s="11" t="n"/>
+      <c r="B506" s="8" t="n"/>
     </row>
     <row r="507">
       <c r="A507" s="7" t="n"/>
-      <c r="B507" s="11" t="n"/>
+      <c r="B507" s="8" t="n"/>
     </row>
     <row r="508">
       <c r="A508" s="7" t="n"/>
-      <c r="B508" s="11" t="n"/>
+      <c r="B508" s="8" t="n"/>
     </row>
     <row r="509">
       <c r="A509" s="10" t="n"/>
@@ -9434,7 +9088,7 @@
     </row>
     <row r="511">
       <c r="A511" s="7" t="n"/>
-      <c r="B511" s="11" t="n"/>
+      <c r="B511" s="8" t="n"/>
     </row>
     <row r="512">
       <c r="A512" s="10" t="n"/>
@@ -9442,27 +9096,27 @@
     </row>
     <row r="513">
       <c r="A513" s="7" t="n"/>
-      <c r="B513" s="11" t="n"/>
+      <c r="B513" s="8" t="n"/>
     </row>
     <row r="514">
       <c r="A514" s="7" t="n"/>
-      <c r="B514" s="11" t="n"/>
+      <c r="B514" s="8" t="n"/>
     </row>
     <row r="515">
       <c r="A515" s="7" t="n"/>
-      <c r="B515" s="11" t="n"/>
+      <c r="B515" s="8" t="n"/>
     </row>
     <row r="516">
       <c r="A516" s="7" t="n"/>
-      <c r="B516" s="11" t="n"/>
+      <c r="B516" s="8" t="n"/>
     </row>
     <row r="517">
       <c r="A517" s="7" t="n"/>
-      <c r="B517" s="11" t="n"/>
+      <c r="B517" s="8" t="n"/>
     </row>
     <row r="518">
       <c r="A518" s="7" t="n"/>
-      <c r="B518" s="11" t="n"/>
+      <c r="B518" s="8" t="n"/>
     </row>
     <row r="519">
       <c r="A519" s="10" t="n"/>
@@ -9490,23 +9144,23 @@
     </row>
     <row r="525">
       <c r="A525" s="7" t="n"/>
-      <c r="B525" s="11" t="n"/>
+      <c r="B525" s="8" t="n"/>
     </row>
     <row r="526">
       <c r="A526" s="7" t="n"/>
-      <c r="B526" s="11" t="n"/>
+      <c r="B526" s="8" t="n"/>
     </row>
     <row r="527">
       <c r="A527" s="7" t="n"/>
-      <c r="B527" s="11" t="n"/>
+      <c r="B527" s="8" t="n"/>
     </row>
     <row r="528">
       <c r="A528" s="7" t="n"/>
-      <c r="B528" s="11" t="n"/>
+      <c r="B528" s="8" t="n"/>
     </row>
     <row r="529">
       <c r="A529" s="7" t="n"/>
-      <c r="B529" s="11" t="n"/>
+      <c r="B529" s="8" t="n"/>
     </row>
     <row r="530">
       <c r="A530" s="10" t="n"/>
@@ -9522,11 +9176,11 @@
     </row>
     <row r="533">
       <c r="A533" s="7" t="n"/>
-      <c r="B533" s="11" t="n"/>
+      <c r="B533" s="8" t="n"/>
     </row>
     <row r="534">
       <c r="A534" s="7" t="n"/>
-      <c r="B534" s="11" t="n"/>
+      <c r="B534" s="8" t="n"/>
     </row>
     <row r="535">
       <c r="A535" s="10" t="n"/>
@@ -9538,15 +9192,15 @@
     </row>
     <row r="537">
       <c r="A537" s="7" t="n"/>
-      <c r="B537" s="11" t="n"/>
+      <c r="B537" s="8" t="n"/>
     </row>
     <row r="538">
       <c r="A538" s="7" t="n"/>
-      <c r="B538" s="11" t="n"/>
+      <c r="B538" s="8" t="n"/>
     </row>
     <row r="539">
       <c r="A539" s="7" t="n"/>
-      <c r="B539" s="11" t="n"/>
+      <c r="B539" s="8" t="n"/>
     </row>
     <row r="540">
       <c r="A540" s="10" t="n"/>
@@ -9554,7 +9208,7 @@
     </row>
     <row r="541">
       <c r="A541" s="7" t="n"/>
-      <c r="B541" s="11" t="n"/>
+      <c r="B541" s="8" t="n"/>
     </row>
     <row r="542">
       <c r="A542" s="10" t="n"/>
@@ -9562,23 +9216,23 @@
     </row>
     <row r="543">
       <c r="A543" s="7" t="n"/>
-      <c r="B543" s="11" t="n"/>
+      <c r="B543" s="8" t="n"/>
     </row>
     <row r="544">
       <c r="A544" s="7" t="n"/>
-      <c r="B544" s="11" t="n"/>
+      <c r="B544" s="8" t="n"/>
     </row>
     <row r="545">
       <c r="A545" s="7" t="n"/>
-      <c r="B545" s="11" t="n"/>
+      <c r="B545" s="8" t="n"/>
     </row>
     <row r="546">
       <c r="A546" s="7" t="n"/>
-      <c r="B546" s="11" t="n"/>
+      <c r="B546" s="8" t="n"/>
     </row>
     <row r="547">
       <c r="A547" s="7" t="n"/>
-      <c r="B547" s="11" t="n"/>
+      <c r="B547" s="8" t="n"/>
     </row>
     <row r="548">
       <c r="A548" s="10" t="n"/>
@@ -9594,23 +9248,23 @@
     </row>
     <row r="551">
       <c r="A551" s="7" t="n"/>
-      <c r="B551" s="11" t="n"/>
+      <c r="B551" s="8" t="n"/>
     </row>
     <row r="552">
       <c r="A552" s="7" t="n"/>
-      <c r="B552" s="11" t="n"/>
+      <c r="B552" s="8" t="n"/>
     </row>
     <row r="553">
       <c r="A553" s="7" t="n"/>
-      <c r="B553" s="11" t="n"/>
+      <c r="B553" s="8" t="n"/>
     </row>
     <row r="554">
       <c r="A554" s="7" t="n"/>
-      <c r="B554" s="11" t="n"/>
+      <c r="B554" s="8" t="n"/>
     </row>
     <row r="555">
       <c r="A555" s="7" t="n"/>
-      <c r="B555" s="11" t="n"/>
+      <c r="B555" s="8" t="n"/>
     </row>
     <row r="556">
       <c r="A556" s="10" t="n"/>
@@ -9618,15 +9272,15 @@
     </row>
     <row r="557">
       <c r="A557" s="7" t="n"/>
-      <c r="B557" s="11" t="n"/>
+      <c r="B557" s="8" t="n"/>
     </row>
     <row r="558">
       <c r="A558" s="7" t="n"/>
-      <c r="B558" s="11" t="n"/>
+      <c r="B558" s="8" t="n"/>
     </row>
     <row r="559">
       <c r="A559" s="7" t="n"/>
-      <c r="B559" s="11" t="n"/>
+      <c r="B559" s="8" t="n"/>
     </row>
     <row r="560">
       <c r="A560" s="10" t="n"/>
@@ -9642,7 +9296,7 @@
     </row>
     <row r="563">
       <c r="A563" s="7" t="n"/>
-      <c r="B563" s="11" t="n"/>
+      <c r="B563" s="8" t="n"/>
     </row>
     <row r="564">
       <c r="A564" s="10" t="n"/>
@@ -9650,19 +9304,19 @@
     </row>
     <row r="565">
       <c r="A565" s="7" t="n"/>
-      <c r="B565" s="11" t="n"/>
+      <c r="B565" s="8" t="n"/>
     </row>
     <row r="566">
       <c r="A566" s="7" t="n"/>
-      <c r="B566" s="11" t="n"/>
+      <c r="B566" s="8" t="n"/>
     </row>
     <row r="567">
       <c r="A567" s="7" t="n"/>
-      <c r="B567" s="11" t="n"/>
+      <c r="B567" s="8" t="n"/>
     </row>
     <row r="568">
       <c r="A568" s="7" t="n"/>
-      <c r="B568" s="11" t="n"/>
+      <c r="B568" s="8" t="n"/>
     </row>
     <row r="569">
       <c r="A569" s="10" t="n"/>
@@ -9670,7 +9324,7 @@
     </row>
     <row r="570">
       <c r="A570" s="7" t="n"/>
-      <c r="B570" s="11" t="n"/>
+      <c r="B570" s="8" t="n"/>
     </row>
     <row r="571">
       <c r="A571" s="10" t="n"/>
@@ -9702,7 +9356,7 @@
     </row>
     <row r="578">
       <c r="A578" s="7" t="n"/>
-      <c r="B578" s="11" t="n"/>
+      <c r="B578" s="8" t="n"/>
     </row>
     <row r="579">
       <c r="A579" s="10" t="n"/>
@@ -9710,7 +9364,7 @@
     </row>
     <row r="580">
       <c r="A580" s="7" t="n"/>
-      <c r="B580" s="11" t="n"/>
+      <c r="B580" s="8" t="n"/>
     </row>
     <row r="581">
       <c r="A581" s="10" t="n"/>
@@ -9718,7 +9372,7 @@
     </row>
     <row r="582">
       <c r="A582" s="7" t="n"/>
-      <c r="B582" s="11" t="n"/>
+      <c r="B582" s="8" t="n"/>
     </row>
     <row r="583">
       <c r="A583" s="10" t="n"/>
@@ -9730,7 +9384,7 @@
     </row>
     <row r="585">
       <c r="A585" s="7" t="n"/>
-      <c r="B585" s="11" t="n"/>
+      <c r="B585" s="8" t="n"/>
     </row>
     <row r="586">
       <c r="A586" s="10" t="n"/>
@@ -9738,7 +9392,7 @@
     </row>
     <row r="587">
       <c r="A587" s="7" t="n"/>
-      <c r="B587" s="11" t="n"/>
+      <c r="B587" s="8" t="n"/>
     </row>
     <row r="588">
       <c r="A588" s="10" t="n"/>
@@ -9746,7 +9400,7 @@
     </row>
     <row r="589">
       <c r="A589" s="7" t="n"/>
-      <c r="B589" s="11" t="n"/>
+      <c r="B589" s="8" t="n"/>
     </row>
     <row r="590">
       <c r="A590" s="10" t="n"/>
@@ -9754,7 +9408,7 @@
     </row>
     <row r="591">
       <c r="A591" s="7" t="n"/>
-      <c r="B591" s="11" t="n"/>
+      <c r="B591" s="8" t="n"/>
     </row>
     <row r="592">
       <c r="A592" s="10" t="n"/>
@@ -9762,11 +9416,11 @@
     </row>
     <row r="593">
       <c r="A593" s="7" t="n"/>
-      <c r="B593" s="11" t="n"/>
+      <c r="B593" s="8" t="n"/>
     </row>
     <row r="594">
       <c r="A594" s="7" t="n"/>
-      <c r="B594" s="11" t="n"/>
+      <c r="B594" s="8" t="n"/>
     </row>
     <row r="595">
       <c r="A595" s="10" t="n"/>
@@ -9794,11 +9448,11 @@
     </row>
     <row r="601">
       <c r="A601" s="7" t="n"/>
-      <c r="B601" s="11" t="n"/>
+      <c r="B601" s="8" t="n"/>
     </row>
     <row r="602">
       <c r="A602" s="7" t="n"/>
-      <c r="B602" s="11" t="n"/>
+      <c r="B602" s="8" t="n"/>
     </row>
     <row r="603">
       <c r="A603" s="10" t="n"/>
@@ -9806,11 +9460,11 @@
     </row>
     <row r="604">
       <c r="A604" s="7" t="n"/>
-      <c r="B604" s="11" t="n"/>
+      <c r="B604" s="8" t="n"/>
     </row>
     <row r="605">
       <c r="A605" s="7" t="n"/>
-      <c r="B605" s="11" t="n"/>
+      <c r="B605" s="8" t="n"/>
     </row>
     <row r="606">
       <c r="A606" s="10" t="n"/>
@@ -9822,15 +9476,15 @@
     </row>
     <row r="608">
       <c r="A608" s="7" t="n"/>
-      <c r="B608" s="11" t="n"/>
+      <c r="B608" s="8" t="n"/>
     </row>
     <row r="609">
       <c r="A609" s="7" t="n"/>
-      <c r="B609" s="11" t="n"/>
+      <c r="B609" s="8" t="n"/>
     </row>
     <row r="610">
       <c r="A610" s="7" t="n"/>
-      <c r="B610" s="11" t="n"/>
+      <c r="B610" s="8" t="n"/>
     </row>
     <row r="611">
       <c r="A611" s="10" t="n"/>
@@ -9838,7 +9492,7 @@
     </row>
     <row r="612">
       <c r="A612" s="7" t="n"/>
-      <c r="B612" s="11" t="n"/>
+      <c r="B612" s="8" t="n"/>
     </row>
     <row r="613">
       <c r="A613" s="10" t="n"/>
@@ -9865,7 +9519,7 @@
     </row>
     <row r="618" ht="15.75" customHeight="1">
       <c r="A618" s="13" t="n"/>
-      <c r="B618" s="11" t="n"/>
+      <c r="B618" s="14" t="n"/>
       <c r="E618" s="12" t="n"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
@@ -10478,185 +10132,185 @@
     </row>
     <row r="759" ht="16.5" customHeight="1">
       <c r="A759" s="15" t="n"/>
-      <c r="B759" s="14" t="n"/>
+      <c r="B759" s="16" t="n"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="B760" s="16" t="n"/>
+      <c r="B760" s="12" t="n"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="B761" s="17" t="n"/>
+      <c r="B761" s="12" t="n"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="B762" s="17" t="n"/>
+      <c r="B762" s="12" t="n"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="B763" s="17" t="n"/>
+      <c r="B763" s="12" t="n"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="B764" s="17" t="n"/>
+      <c r="B764" s="12" t="n"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="B765" s="17" t="n"/>
+      <c r="B765" s="12" t="n"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="B766" s="17" t="n"/>
+      <c r="B766" s="12" t="n"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="B767" s="17" t="n"/>
+      <c r="B767" s="12" t="n"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="B768" s="17" t="n"/>
+      <c r="B768" s="12" t="n"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="B769" s="17" t="n"/>
+      <c r="B769" s="12" t="n"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="B770" s="17" t="n"/>
+      <c r="B770" s="12" t="n"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="B771" s="17" t="n"/>
+      <c r="B771" s="12" t="n"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="B772" s="17" t="n"/>
+      <c r="B772" s="12" t="n"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="B773" s="17" t="n"/>
+      <c r="B773" s="12" t="n"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="B774" s="17" t="n"/>
+      <c r="B774" s="12" t="n"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="B775" s="17" t="n"/>
+      <c r="B775" s="12" t="n"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="B776" s="17" t="n"/>
+      <c r="B776" s="12" t="n"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="B777" s="17" t="n"/>
+      <c r="B777" s="12" t="n"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="B778" s="17" t="n"/>
+      <c r="B778" s="12" t="n"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="B779" s="17" t="n"/>
+      <c r="B779" s="12" t="n"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="B780" s="17" t="n"/>
+      <c r="B780" s="12" t="n"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="B781" s="17" t="n"/>
+      <c r="B781" s="12" t="n"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="B782" s="17" t="n"/>
+      <c r="B782" s="12" t="n"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="B783" s="17" t="n"/>
+      <c r="B783" s="12" t="n"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="B784" s="17" t="n"/>
+      <c r="B784" s="12" t="n"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="B785" s="17" t="n"/>
+      <c r="B785" s="12" t="n"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="B786" s="17" t="n"/>
+      <c r="B786" s="12" t="n"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="B787" s="17" t="n"/>
+      <c r="B787" s="12" t="n"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="B788" s="17" t="n"/>
+      <c r="B788" s="12" t="n"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="B789" s="17" t="n"/>
+      <c r="B789" s="12" t="n"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="B790" s="17" t="n"/>
+      <c r="B790" s="12" t="n"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="B791" s="17" t="n"/>
+      <c r="B791" s="12" t="n"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="B792" s="17" t="n"/>
+      <c r="B792" s="12" t="n"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="B793" s="17" t="n"/>
+      <c r="B793" s="12" t="n"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="B794" s="17" t="n"/>
+      <c r="B794" s="12" t="n"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="B795" s="17" t="n"/>
+      <c r="B795" s="12" t="n"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="B796" s="17" t="n"/>
+      <c r="B796" s="12" t="n"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="B797" s="17" t="n"/>
+      <c r="B797" s="12" t="n"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="B798" s="17" t="n"/>
+      <c r="B798" s="12" t="n"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="B799" s="17" t="n"/>
+      <c r="B799" s="12" t="n"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="B800" s="17" t="n"/>
+      <c r="B800" s="12" t="n"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="B801" s="17" t="n"/>
+      <c r="B801" s="12" t="n"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="B802" s="17" t="n"/>
+      <c r="B802" s="12" t="n"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="B803" s="17" t="n"/>
+      <c r="B803" s="12" t="n"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="B804" s="17" t="n"/>
+      <c r="B804" s="12" t="n"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="B805" s="17" t="n"/>
+      <c r="B805" s="12" t="n"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="B806" s="17" t="n"/>
+      <c r="B806" s="12" t="n"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="B807" s="17" t="n"/>
+      <c r="B807" s="12" t="n"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="B808" s="17" t="n"/>
+      <c r="B808" s="12" t="n"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="B809" s="17" t="n"/>
+      <c r="B809" s="12" t="n"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="B810" s="17" t="n"/>
+      <c r="B810" s="12" t="n"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="B811" s="17" t="n"/>
+      <c r="B811" s="12" t="n"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="B812" s="17" t="n"/>
+      <c r="B812" s="12" t="n"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="B813" s="17" t="n"/>
+      <c r="B813" s="12" t="n"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="B814" s="17" t="n"/>
+      <c r="B814" s="12" t="n"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="B815" s="17" t="n"/>
+      <c r="B815" s="12" t="n"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="B816" s="17" t="n"/>
+      <c r="B816" s="12" t="n"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="B817" s="17" t="n"/>
+      <c r="B817" s="12" t="n"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="18" t="n"/>
-      <c r="B818" s="17" t="n"/>
+      <c r="A818" s="17" t="n"/>
+      <c r="B818" s="18" t="n"/>
       <c r="D818" s="12" t="inlineStr">
         <is>
           <t>Bedenken, ob Anonymität wirklich gewahrt ist / das Feedback Auswirkungen auf die Benotung hat</t>
@@ -10664,7 +10318,7 @@
       </c>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="18" t="n"/>
+      <c r="A819" s="17" t="n"/>
       <c r="B819" s="19" t="n"/>
       <c r="D819" s="12" t="inlineStr">
         <is>
@@ -10673,8 +10327,8 @@
       </c>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="18" t="n"/>
-      <c r="B820" s="19" t="n"/>
+      <c r="A820" s="17" t="n"/>
+      <c r="B820" s="17" t="n"/>
       <c r="D820" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Direkterer Weg zum Fragebogen / Weg zum Feedback auch über andere Plattformen (Moodle, AAU App) </t>
@@ -10683,7 +10337,7 @@
     </row>
     <row r="821" ht="15.75" customHeight="1">
       <c r="A821" s="20" t="n"/>
-      <c r="B821" s="19" t="n"/>
+      <c r="B821" s="18" t="n"/>
       <c r="D821" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Direkterer Weg zum Fragebogen / Weg zum Feedback auch über andere Plattformen (Moodle, AAU App) </t>
@@ -10692,7 +10346,7 @@
     </row>
     <row r="822" ht="15.75" customHeight="1">
       <c r="A822" s="20" t="n"/>
-      <c r="B822" s="19" t="n"/>
+      <c r="B822" s="20" t="n"/>
       <c r="D822" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Feedbackmöglichkeit bis  Prüfung / Notenvergabe offen halten </t>
@@ -10700,8 +10354,8 @@
       </c>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="18" t="n"/>
-      <c r="B823" s="19" t="n"/>
+      <c r="A823" s="17" t="n"/>
+      <c r="B823" s="18" t="n"/>
       <c r="D823" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Feedbackmöglichkeit bis  Prüfung / Notenvergabe offen halten </t>
@@ -10709,8 +10363,8 @@
       </c>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="18" t="n"/>
-      <c r="B824" s="19" t="n"/>
+      <c r="A824" s="17" t="n"/>
+      <c r="B824" s="17" t="n"/>
       <c r="D824" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Feedbackmöglichkeit bis  Prüfung / Notenvergabe offen halten </t>
@@ -10719,7 +10373,7 @@
     </row>
     <row r="825" ht="15.75" customHeight="1">
       <c r="A825" s="20" t="n"/>
-      <c r="B825" s="19" t="n"/>
+      <c r="B825" s="20" t="n"/>
       <c r="D825" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Feedbackmöglichkeit bis  Prüfung / Notenvergabe offen halten </t>
@@ -10728,7 +10382,7 @@
     </row>
     <row r="826" ht="15.75" customHeight="1">
       <c r="A826" s="20" t="n"/>
-      <c r="B826" s="19" t="n"/>
+      <c r="B826" s="20" t="n"/>
       <c r="D826" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Feedbackmöglichkeit bis  Prüfung / Notenvergabe offen halten </t>
@@ -10737,7 +10391,7 @@
     </row>
     <row r="827" ht="15.75" customHeight="1">
       <c r="A827" s="20" t="n"/>
-      <c r="B827" s="19" t="n"/>
+      <c r="B827" s="20" t="n"/>
       <c r="D827" s="12" t="inlineStr">
         <is>
           <t>Fragebogen sollte besser zu einzelnen LV(-Typen) passen</t>
@@ -10745,8 +10399,8 @@
       </c>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="18" t="n"/>
-      <c r="B828" s="19" t="n"/>
+      <c r="A828" s="17" t="n"/>
+      <c r="B828" s="17" t="n"/>
       <c r="D828" s="12" t="inlineStr">
         <is>
           <t>Fragebogen sollte besser zu einzelnen LV(-Typen) passen</t>
@@ -10755,7 +10409,7 @@
     </row>
     <row r="829" ht="15.75" customHeight="1">
       <c r="A829" s="20" t="n"/>
-      <c r="B829" s="19" t="n"/>
+      <c r="B829" s="20" t="n"/>
       <c r="D829" s="12" t="inlineStr">
         <is>
           <t>Fragebogen sollte besser zu einzelnen LV(-Typen) passen</t>
@@ -10764,7 +10418,7 @@
     </row>
     <row r="830" ht="15.75" customHeight="1">
       <c r="A830" s="20" t="n"/>
-      <c r="B830" s="19" t="n"/>
+      <c r="B830" s="20" t="n"/>
       <c r="D830" s="12" t="inlineStr">
         <is>
           <t>Fragebogen sollte besser zu einzelnen LV(-Typen) passen</t>
@@ -10773,7 +10427,7 @@
     </row>
     <row r="831" ht="15.75" customHeight="1">
       <c r="A831" s="20" t="n"/>
-      <c r="B831" s="19" t="n"/>
+      <c r="B831" s="18" t="n"/>
       <c r="D831" s="12" t="inlineStr">
         <is>
           <t>Fragebogen sollte besser zu einzelnen LV(-Typen) passen</t>
@@ -10782,222 +10436,222 @@
     </row>
     <row r="832" ht="15.75" customHeight="1">
       <c r="A832" s="20" t="n"/>
-      <c r="B832" s="19" t="n"/>
+      <c r="B832" s="20" t="n"/>
       <c r="D832" s="12" t="inlineStr">
         <is>
           <t>Fragebogen sollte besser zu einzelnen LV(-Typen) passen</t>
         </is>
       </c>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="18" t="n"/>
-      <c r="B833" s="19" t="n"/>
+    <row r="833" ht="16.5" customHeight="1">
+      <c r="A833" s="17" t="n"/>
+      <c r="B833" s="17" t="n"/>
       <c r="D833" s="12" t="inlineStr">
         <is>
           <t>Maximale Zeichenanzahl in Freitextantworten zu limitierend</t>
         </is>
       </c>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" ht="16.5" customHeight="1">
       <c r="A834" s="20" t="n"/>
-      <c r="B834" s="19" t="n"/>
+      <c r="B834" s="20" t="n"/>
       <c r="D834" s="12" t="inlineStr">
         <is>
           <t>Weiterleitung des Feedbacks an Lehrende auch bei weniger als vier Rückmeldungen</t>
         </is>
       </c>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="18" t="n"/>
-      <c r="B835" s="19" t="n"/>
+    <row r="835" ht="16.5" customHeight="1">
+      <c r="A835" s="17" t="n"/>
+      <c r="B835" s="17" t="n"/>
       <c r="D835" s="12" t="inlineStr">
         <is>
           <t>Weiterleitung des Feedbacks an Lehrende auch bei weniger als vier Rückmeldungen</t>
         </is>
       </c>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" ht="16.5" customHeight="1">
       <c r="A836" s="20" t="n"/>
-      <c r="B836" s="19" t="n"/>
+      <c r="B836" s="20" t="n"/>
       <c r="D836" s="12" t="inlineStr">
         <is>
           <t>Weiterleitung des Feedbacks an Lehrende auch bei weniger als vier Rückmeldungen</t>
         </is>
       </c>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" ht="16.5" customHeight="1">
       <c r="A837" s="20" t="n"/>
-      <c r="B837" s="19" t="n"/>
+      <c r="B837" s="20" t="n"/>
       <c r="D837" s="12" t="inlineStr">
         <is>
           <t>Weiterleitung des Feedbacks an Lehrende auch bei weniger als vier Rückmeldungen</t>
         </is>
       </c>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" ht="16.5" customHeight="1">
       <c r="A838" s="20" t="n"/>
-      <c r="B838" s="19" t="n"/>
+      <c r="B838" s="20" t="n"/>
       <c r="D838" s="12" t="inlineStr">
         <is>
           <t>Weiterleitung des Feedbacks an Lehrende auch bei weniger als vier Rückmeldungen</t>
         </is>
       </c>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="18" t="n"/>
-      <c r="B839" s="19" t="n"/>
+    <row r="839" ht="16.5" customHeight="1">
+      <c r="A839" s="17" t="n"/>
+      <c r="B839" s="17" t="n"/>
       <c r="D839" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach anderen Antwortmöglichkeiten (Neutrale Option, größere Skala)</t>
         </is>
       </c>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="18" t="n"/>
-      <c r="B840" s="19" t="n"/>
+    <row r="840" ht="16.5" customHeight="1">
+      <c r="A840" s="17" t="n"/>
+      <c r="B840" s="17" t="n"/>
       <c r="D840" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach anderen Antwortmöglichkeiten (Neutrale Option, größere Skala)</t>
         </is>
       </c>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" ht="16.5" customHeight="1">
       <c r="A841" s="20" t="n"/>
-      <c r="B841" s="19" t="n"/>
+      <c r="B841" s="18" t="n"/>
       <c r="D841" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach anderen Antwortmöglichkeiten (Neutrale Option, größere Skala)</t>
         </is>
       </c>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" ht="16.5" customHeight="1">
       <c r="A842" s="20" t="n"/>
-      <c r="B842" s="19" t="n"/>
+      <c r="B842" s="20" t="n"/>
       <c r="D842" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach anderen Antwortmöglichkeiten (Neutrale Option, größere Skala)</t>
         </is>
       </c>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" ht="16.5" customHeight="1">
       <c r="A843" s="20" t="n"/>
-      <c r="B843" s="19" t="n"/>
+      <c r="B843" s="20" t="n"/>
       <c r="D843" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach Bewertungsschema für Lehrende</t>
         </is>
       </c>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="18" t="n"/>
-      <c r="B844" s="19" t="n"/>
+    <row r="844" ht="16.5" customHeight="1">
+      <c r="A844" s="17" t="n"/>
+      <c r="B844" s="18" t="n"/>
       <c r="D844" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach Bewertungsschema für Lehrende</t>
         </is>
       </c>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="18" t="n"/>
-      <c r="B845" s="19" t="n"/>
+    <row r="845" ht="16.5" customHeight="1">
+      <c r="A845" s="17" t="n"/>
+      <c r="B845" s="17" t="n"/>
       <c r="D845" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach Bewertungsschema für Lehrende</t>
         </is>
       </c>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="18" t="n"/>
-      <c r="B846" s="19" t="n"/>
+    <row r="846" ht="16.5" customHeight="1">
+      <c r="A846" s="17" t="n"/>
+      <c r="B846" s="17" t="n"/>
       <c r="D846" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach Bewertungsschema für Lehrende</t>
         </is>
       </c>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" ht="16.5" customHeight="1">
       <c r="A847" s="20" t="n"/>
-      <c r="B847" s="19" t="n"/>
+      <c r="B847" s="20" t="n"/>
       <c r="D847" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach geänderten Fragen</t>
         </is>
       </c>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" ht="16.5" customHeight="1">
       <c r="A848" s="20" t="n"/>
-      <c r="B848" s="19" t="n"/>
+      <c r="B848" s="20" t="n"/>
       <c r="D848" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach geänderten Fragen</t>
         </is>
       </c>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" ht="16.5" customHeight="1">
       <c r="A849" s="20" t="n"/>
-      <c r="B849" s="19" t="n"/>
+      <c r="B849" s="20" t="n"/>
       <c r="D849" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach geänderten Fragen</t>
         </is>
       </c>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="18" t="n"/>
-      <c r="B850" s="19" t="n"/>
+    <row r="850" ht="16.5" customHeight="1">
+      <c r="A850" s="17" t="n"/>
+      <c r="B850" s="18" t="n"/>
       <c r="D850" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach geänderten Fragen</t>
         </is>
       </c>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" ht="16.5" customHeight="1">
       <c r="A851" s="20" t="n"/>
-      <c r="B851" s="19" t="n"/>
+      <c r="B851" s="20" t="n"/>
       <c r="D851" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach geänderten Fragen</t>
         </is>
       </c>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" ht="16.5" customHeight="1">
       <c r="A852" s="20" t="n"/>
-      <c r="B852" s="19" t="n"/>
+      <c r="B852" s="18" t="n"/>
       <c r="D852" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach zusätzlichen Fragen / Freitextfeldern</t>
         </is>
       </c>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="18" t="n"/>
-      <c r="B853" s="19" t="n"/>
+    <row r="853" ht="16.5" customHeight="1">
+      <c r="A853" s="17" t="n"/>
+      <c r="B853" s="17" t="n"/>
       <c r="D853" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach zusätzlichen Fragen / Freitextfeldern</t>
         </is>
       </c>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="18" t="n"/>
-      <c r="B854" s="19" t="n"/>
+    <row r="854" ht="16.5" customHeight="1">
+      <c r="A854" s="17" t="n"/>
+      <c r="B854" s="17" t="n"/>
       <c r="D854" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach spezifischeren Fragen zum Lehrenden</t>
         </is>
       </c>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="18" t="n"/>
-      <c r="B855" s="19" t="n"/>
+    <row r="855" ht="16.5" customHeight="1">
+      <c r="A855" s="17" t="n"/>
+      <c r="B855" s="17" t="n"/>
       <c r="D855" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach spezifischeren Fragen zum Lehrenden</t>
         </is>
       </c>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="18" t="n"/>
+    <row r="856" ht="16.5" customHeight="1">
+      <c r="A856" s="17" t="n"/>
       <c r="B856" s="19" t="n"/>
       <c r="D856" s="12" t="inlineStr">
         <is>
@@ -11005,35 +10659,35 @@
         </is>
       </c>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" ht="16.5" customHeight="1">
       <c r="A857" s="20" t="n"/>
-      <c r="B857" s="19" t="n"/>
+      <c r="B857" s="20" t="n"/>
       <c r="D857" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach spezifischeren Fragen zum Lehrenden</t>
         </is>
       </c>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" ht="16.5" customHeight="1">
       <c r="A858" s="20" t="n"/>
-      <c r="B858" s="19" t="n"/>
+      <c r="B858" s="18" t="n"/>
       <c r="D858" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach spezifischeren Fragen zum Lehrenden</t>
         </is>
       </c>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="18" t="n"/>
-      <c r="B859" s="19" t="n"/>
+    <row r="859" ht="16.5" customHeight="1">
+      <c r="A859" s="17" t="n"/>
+      <c r="B859" s="17" t="n"/>
       <c r="D859" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach zusätzlichen Fragen / Freitextfeldern</t>
         </is>
       </c>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="18" t="n"/>
+    <row r="860" ht="16.5" customHeight="1">
+      <c r="A860" s="17" t="n"/>
       <c r="B860" s="19" t="n"/>
       <c r="D860" s="12" t="inlineStr">
         <is>
@@ -11041,71 +10695,71 @@
         </is>
       </c>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" ht="16.5" customHeight="1">
       <c r="A861" s="20" t="n"/>
-      <c r="B861" s="19" t="n"/>
+      <c r="B861" s="20" t="n"/>
       <c r="D861" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach zusätzlichen Fragen / Freitextfeldern</t>
         </is>
       </c>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="18" t="n"/>
-      <c r="B862" s="19" t="n"/>
+    <row r="862" ht="16.5" customHeight="1">
+      <c r="A862" s="17" t="n"/>
+      <c r="B862" s="17" t="n"/>
       <c r="D862" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach zusätzlichen Fragen / Freitextfeldern</t>
         </is>
       </c>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="18" t="n"/>
-      <c r="B863" s="19" t="n"/>
+    <row r="863" ht="16.5" customHeight="1">
+      <c r="A863" s="17" t="n"/>
+      <c r="B863" s="17" t="n"/>
       <c r="D863" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach zusätzlichen Fragen / Freitextfeldern</t>
         </is>
       </c>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" ht="16.5" customHeight="1">
       <c r="A864" s="20" t="n"/>
-      <c r="B864" s="19" t="n"/>
+      <c r="B864" s="20" t="n"/>
       <c r="D864" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach zusätzlichen Fragen / Freitextfeldern</t>
         </is>
       </c>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" ht="16.5" customHeight="1">
       <c r="A865" s="20" t="n"/>
-      <c r="B865" s="19" t="n"/>
+      <c r="B865" s="20" t="n"/>
       <c r="D865" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach zusätzlichen Fragen / Freitextfeldern</t>
         </is>
       </c>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" ht="16.5" customHeight="1">
       <c r="A866" s="20" t="n"/>
-      <c r="B866" s="19" t="n"/>
+      <c r="B866" s="20" t="n"/>
       <c r="D866" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach zusätzlichen Fragen / Freitextfeldern</t>
         </is>
       </c>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" ht="16.5" customHeight="1">
       <c r="A867" s="20" t="n"/>
-      <c r="B867" s="19" t="n"/>
+      <c r="B867" s="18" t="n"/>
       <c r="D867" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach zusätzlichen Fragen / Freitextfeldern</t>
         </is>
       </c>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="18" t="n"/>
+    <row r="868" ht="16.5" customHeight="1">
+      <c r="A868" s="17" t="n"/>
       <c r="B868" s="19" t="n"/>
       <c r="D868" s="12" t="inlineStr">
         <is>
@@ -11113,27 +10767,27 @@
         </is>
       </c>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="18" t="n"/>
-      <c r="B869" s="19" t="n"/>
+    <row r="869" ht="16.5" customHeight="1">
+      <c r="A869" s="17" t="n"/>
+      <c r="B869" s="17" t="n"/>
       <c r="D869" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach zusätzlichen Fragen / Freitextfeldern</t>
         </is>
       </c>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" ht="16.5" customHeight="1">
       <c r="A870" s="20" t="n"/>
-      <c r="B870" s="19" t="n"/>
+      <c r="B870" s="18" t="n"/>
       <c r="D870" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach zusätzlichen Fragen / Freitextfeldern</t>
         </is>
       </c>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" ht="16.5" customHeight="1">
       <c r="A871" s="20" t="n"/>
-      <c r="B871" s="19" t="n"/>
+      <c r="B871" s="20" t="n"/>
       <c r="D871" s="12" t="inlineStr">
         <is>
           <t>Wunsch nach zusätzlichen Fragen / Freitextfeldern</t>
@@ -11142,374 +10796,369 @@
     </row>
     <row r="872">
       <c r="A872" s="20" t="n"/>
-      <c r="B872" s="19" t="n"/>
+      <c r="B872" s="20" t="n"/>
     </row>
     <row r="873">
       <c r="A873" s="20" t="n"/>
-      <c r="B873" s="19" t="n"/>
+      <c r="B873" s="20" t="n"/>
     </row>
     <row r="874">
       <c r="A874" s="20" t="n"/>
-      <c r="B874" s="19" t="n"/>
-    </row>
-    <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="18" t="n"/>
-      <c r="B875" s="19" t="n"/>
-    </row>
-    <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="18" t="n"/>
-      <c r="B876" s="17" t="n"/>
+      <c r="B874" s="20" t="n"/>
+    </row>
+    <row r="875" ht="16.5" customHeight="1">
+      <c r="A875" s="17" t="n"/>
+      <c r="B875" s="12" t="n"/>
+    </row>
+    <row r="876" ht="16.5" customHeight="1">
+      <c r="A876" s="17" t="n"/>
+      <c r="B876" s="12" t="n"/>
     </row>
     <row r="877">
-      <c r="A877" s="18" t="n"/>
+      <c r="A877" s="17" t="n"/>
       <c r="B877" s="17" t="n"/>
     </row>
     <row r="878">
-      <c r="A878" s="18" t="n"/>
-      <c r="B878" s="19" t="n"/>
+      <c r="A878" s="17" t="n"/>
+      <c r="B878" s="17" t="n"/>
     </row>
     <row r="879">
-      <c r="A879" s="18" t="n"/>
-      <c r="B879" s="19" t="n"/>
+      <c r="A879" s="17" t="n"/>
+      <c r="B879" s="17" t="n"/>
     </row>
     <row r="880">
-      <c r="A880" s="18" t="n"/>
-      <c r="B880" s="19" t="n"/>
+      <c r="A880" s="17" t="n"/>
+      <c r="B880" s="17" t="n"/>
     </row>
     <row r="881">
-      <c r="A881" s="18" t="n"/>
-      <c r="B881" s="19" t="n"/>
+      <c r="A881" s="17" t="n"/>
+      <c r="B881" s="17" t="n"/>
     </row>
     <row r="882">
       <c r="A882" s="20" t="n"/>
-      <c r="B882" s="19" t="n"/>
+      <c r="B882" s="20" t="n"/>
     </row>
     <row r="883">
       <c r="A883" s="20" t="n"/>
-      <c r="B883" s="19" t="n"/>
+      <c r="B883" s="20" t="n"/>
     </row>
     <row r="884">
-      <c r="A884" s="18" t="n"/>
-      <c r="B884" s="19" t="n"/>
+      <c r="A884" s="17" t="n"/>
+      <c r="B884" s="17" t="n"/>
     </row>
     <row r="885">
       <c r="A885" s="20" t="n"/>
-      <c r="B885" s="19" t="n"/>
+      <c r="B885" s="20" t="n"/>
     </row>
     <row r="886">
       <c r="A886" s="20" t="n"/>
-      <c r="B886" s="19" t="n"/>
+      <c r="B886" s="20" t="n"/>
     </row>
     <row r="887">
       <c r="A887" s="20" t="n"/>
-      <c r="B887" s="19" t="n"/>
+      <c r="B887" s="20" t="n"/>
     </row>
     <row r="888">
       <c r="A888" s="20" t="n"/>
-      <c r="B888" s="19" t="n"/>
+      <c r="B888" s="20" t="n"/>
     </row>
     <row r="889">
       <c r="A889" s="20" t="n"/>
-      <c r="B889" s="19" t="n"/>
+      <c r="B889" s="20" t="n"/>
     </row>
     <row r="890">
       <c r="A890" s="20" t="n"/>
-      <c r="B890" s="19" t="n"/>
+      <c r="B890" s="20" t="n"/>
     </row>
     <row r="891">
       <c r="A891" s="20" t="n"/>
-      <c r="B891" s="19" t="n"/>
+      <c r="B891" s="20" t="n"/>
     </row>
     <row r="892">
       <c r="A892" s="20" t="n"/>
-      <c r="B892" s="19" t="n"/>
+      <c r="B892" s="20" t="n"/>
     </row>
     <row r="893">
       <c r="A893" s="20" t="n"/>
-      <c r="B893" s="19" t="n"/>
+      <c r="B893" s="20" t="n"/>
     </row>
     <row r="894">
       <c r="A894" s="20" t="n"/>
-      <c r="B894" s="19" t="n"/>
+      <c r="B894" s="20" t="n"/>
     </row>
     <row r="895">
-      <c r="A895" s="18" t="n"/>
-      <c r="B895" s="19" t="n"/>
+      <c r="A895" s="17" t="n"/>
+      <c r="B895" s="17" t="n"/>
     </row>
     <row r="896">
-      <c r="A896" s="18" t="n"/>
-      <c r="B896" s="19" t="n"/>
+      <c r="A896" s="17" t="n"/>
+      <c r="B896" s="17" t="n"/>
     </row>
     <row r="897">
       <c r="A897" s="20" t="n"/>
-      <c r="B897" s="19" t="n"/>
+      <c r="B897" s="20" t="n"/>
     </row>
     <row r="898">
       <c r="A898" s="20" t="n"/>
-      <c r="B898" s="19" t="n"/>
+      <c r="B898" s="20" t="n"/>
     </row>
     <row r="899">
-      <c r="A899" s="18" t="n"/>
-      <c r="B899" s="19" t="n"/>
+      <c r="A899" s="17" t="n"/>
+      <c r="B899" s="17" t="n"/>
     </row>
     <row r="900">
-      <c r="A900" s="18" t="n"/>
-      <c r="B900" s="19" t="n"/>
+      <c r="A900" s="17" t="n"/>
+      <c r="B900" s="17" t="n"/>
     </row>
     <row r="901">
       <c r="A901" s="20" t="n"/>
-      <c r="B901" s="19" t="n"/>
+      <c r="B901" s="20" t="n"/>
     </row>
     <row r="902">
       <c r="A902" s="20" t="n"/>
-      <c r="B902" s="19" t="n"/>
+      <c r="B902" s="20" t="n"/>
     </row>
     <row r="903">
       <c r="A903" s="20" t="n"/>
-      <c r="B903" s="19" t="n"/>
+      <c r="B903" s="20" t="n"/>
     </row>
     <row r="904">
       <c r="A904" s="20" t="n"/>
-      <c r="B904" s="19" t="n"/>
+      <c r="B904" s="20" t="n"/>
     </row>
     <row r="905">
-      <c r="A905" s="18" t="n"/>
-      <c r="B905" s="19" t="n"/>
+      <c r="A905" s="17" t="n"/>
+      <c r="B905" s="17" t="n"/>
     </row>
     <row r="906">
-      <c r="A906" s="18" t="n"/>
-      <c r="B906" s="19" t="n"/>
+      <c r="A906" s="17" t="n"/>
+      <c r="B906" s="17" t="n"/>
     </row>
     <row r="907">
-      <c r="A907" s="18" t="n"/>
-      <c r="B907" s="19" t="n"/>
+      <c r="A907" s="17" t="n"/>
+      <c r="B907" s="17" t="n"/>
     </row>
     <row r="908">
       <c r="A908" s="20" t="n"/>
-      <c r="B908" s="19" t="n"/>
+      <c r="B908" s="20" t="n"/>
     </row>
     <row r="909">
-      <c r="A909" s="18" t="n"/>
-      <c r="B909" s="19" t="n"/>
+      <c r="A909" s="17" t="n"/>
+      <c r="B909" s="17" t="n"/>
     </row>
     <row r="910">
-      <c r="A910" s="18" t="n"/>
-      <c r="B910" s="19" t="n"/>
+      <c r="A910" s="17" t="n"/>
+      <c r="B910" s="17" t="n"/>
     </row>
     <row r="911">
-      <c r="A911" s="18" t="n"/>
-      <c r="B911" s="19" t="n"/>
+      <c r="A911" s="17" t="n"/>
+      <c r="B911" s="17" t="n"/>
     </row>
     <row r="912">
       <c r="A912" s="20" t="n"/>
-      <c r="B912" s="19" t="n"/>
+      <c r="B912" s="20" t="n"/>
     </row>
     <row r="913">
-      <c r="A913" s="18" t="n"/>
-      <c r="B913" s="19" t="n"/>
+      <c r="A913" s="17" t="n"/>
+      <c r="B913" s="17" t="n"/>
     </row>
     <row r="914">
-      <c r="A914" s="18" t="n"/>
-      <c r="B914" s="19" t="n"/>
+      <c r="A914" s="17" t="n"/>
+      <c r="B914" s="17" t="n"/>
     </row>
     <row r="915">
       <c r="A915" s="20" t="n"/>
-      <c r="B915" s="19" t="n"/>
+      <c r="B915" s="20" t="n"/>
     </row>
     <row r="916">
-      <c r="A916" s="18" t="n"/>
-      <c r="B916" s="19" t="n"/>
+      <c r="A916" s="17" t="n"/>
+      <c r="B916" s="17" t="n"/>
     </row>
     <row r="917">
       <c r="A917" s="20" t="n"/>
-      <c r="B917" s="19" t="n"/>
+      <c r="B917" s="20" t="n"/>
     </row>
     <row r="918">
       <c r="A918" s="20" t="n"/>
-      <c r="B918" s="19" t="n"/>
+      <c r="B918" s="20" t="n"/>
     </row>
     <row r="919">
-      <c r="A919" s="18" t="n"/>
-      <c r="B919" s="19" t="n"/>
+      <c r="A919" s="17" t="n"/>
+      <c r="B919" s="17" t="n"/>
     </row>
     <row r="920">
       <c r="A920" s="20" t="n"/>
-      <c r="B920" s="19" t="n"/>
+      <c r="B920" s="20" t="n"/>
     </row>
     <row r="921">
       <c r="A921" s="20" t="n"/>
-      <c r="B921" s="19" t="n"/>
+      <c r="B921" s="20" t="n"/>
     </row>
     <row r="922">
-      <c r="A922" s="18" t="n"/>
-      <c r="B922" s="19" t="n"/>
+      <c r="A922" s="17" t="n"/>
+      <c r="B922" s="17" t="n"/>
     </row>
     <row r="923">
-      <c r="A923" s="18" t="n"/>
-      <c r="B923" s="19" t="n"/>
+      <c r="A923" s="17" t="n"/>
+      <c r="B923" s="17" t="n"/>
     </row>
     <row r="924">
       <c r="A924" s="20" t="n"/>
-      <c r="B924" s="19" t="n"/>
+      <c r="B924" s="20" t="n"/>
     </row>
     <row r="925">
       <c r="A925" s="20" t="n"/>
-      <c r="B925" s="19" t="n"/>
+      <c r="B925" s="20" t="n"/>
     </row>
     <row r="926">
-      <c r="A926" s="18" t="n"/>
-      <c r="B926" s="19" t="n"/>
+      <c r="A926" s="17" t="n"/>
+      <c r="B926" s="17" t="n"/>
     </row>
     <row r="927">
-      <c r="A927" s="18" t="n"/>
-      <c r="B927" s="19" t="n"/>
+      <c r="A927" s="17" t="n"/>
+      <c r="B927" s="17" t="n"/>
     </row>
     <row r="928">
-      <c r="A928" s="18" t="n"/>
-      <c r="B928" s="19" t="n"/>
+      <c r="A928" s="17" t="n"/>
+      <c r="B928" s="17" t="n"/>
     </row>
     <row r="929">
       <c r="A929" s="20" t="n"/>
-      <c r="B929" s="19" t="n"/>
+      <c r="B929" s="20" t="n"/>
     </row>
     <row r="930">
-      <c r="A930" s="18" t="n"/>
-      <c r="B930" s="19" t="n"/>
+      <c r="A930" s="17" t="n"/>
+      <c r="B930" s="17" t="n"/>
     </row>
     <row r="931">
       <c r="A931" s="20" t="n"/>
-      <c r="B931" s="19" t="n"/>
+      <c r="B931" s="20" t="n"/>
     </row>
     <row r="932">
       <c r="A932" s="20" t="n"/>
-      <c r="B932" s="19" t="n"/>
+      <c r="B932" s="20" t="n"/>
     </row>
     <row r="933">
       <c r="A933" s="20" t="n"/>
-      <c r="B933" s="19" t="n"/>
+      <c r="B933" s="20" t="n"/>
     </row>
     <row r="934">
       <c r="A934" s="20" t="n"/>
-      <c r="B934" s="19" t="n"/>
+      <c r="B934" s="20" t="n"/>
     </row>
     <row r="935">
       <c r="A935" s="20" t="n"/>
-      <c r="B935" s="19" t="n"/>
+      <c r="B935" s="20" t="n"/>
     </row>
     <row r="936">
       <c r="A936" s="20" t="n"/>
-      <c r="B936" s="19" t="n"/>
+      <c r="B936" s="20" t="n"/>
     </row>
     <row r="937">
-      <c r="A937" s="18" t="n"/>
-      <c r="B937" s="19" t="n"/>
+      <c r="A937" s="17" t="n"/>
+      <c r="B937" s="17" t="n"/>
     </row>
     <row r="938">
       <c r="A938" s="20" t="n"/>
-      <c r="B938" s="19" t="n"/>
+      <c r="B938" s="20" t="n"/>
     </row>
     <row r="939">
       <c r="A939" s="20" t="n"/>
-      <c r="B939" s="19" t="n"/>
+      <c r="B939" s="20" t="n"/>
     </row>
     <row r="940">
-      <c r="A940" s="18" t="n"/>
-      <c r="B940" s="19" t="n"/>
+      <c r="A940" s="17" t="n"/>
+      <c r="B940" s="17" t="n"/>
     </row>
     <row r="941">
       <c r="A941" s="20" t="n"/>
-      <c r="B941" s="19" t="n"/>
+      <c r="B941" s="20" t="n"/>
     </row>
     <row r="942">
       <c r="A942" s="20" t="n"/>
-      <c r="B942" s="19" t="n"/>
+      <c r="B942" s="20" t="n"/>
     </row>
     <row r="943">
-      <c r="A943" s="18" t="n"/>
-      <c r="B943" s="19" t="n"/>
+      <c r="A943" s="17" t="n"/>
+      <c r="B943" s="17" t="n"/>
     </row>
     <row r="944">
       <c r="A944" s="20" t="n"/>
-      <c r="B944" s="19" t="n"/>
+      <c r="B944" s="20" t="n"/>
     </row>
     <row r="945">
-      <c r="A945" s="18" t="n"/>
-      <c r="B945" s="19" t="n"/>
+      <c r="A945" s="17" t="n"/>
+      <c r="B945" s="17" t="n"/>
     </row>
     <row r="946">
-      <c r="A946" s="18" t="n"/>
-      <c r="B946" s="19" t="n"/>
+      <c r="A946" s="17" t="n"/>
+      <c r="B946" s="17" t="n"/>
     </row>
     <row r="947">
       <c r="A947" s="20" t="n"/>
-      <c r="B947" s="19" t="n"/>
+      <c r="B947" s="20" t="n"/>
     </row>
     <row r="948">
       <c r="A948" s="20" t="n"/>
-      <c r="B948" s="19" t="n"/>
+      <c r="B948" s="20" t="n"/>
     </row>
     <row r="949">
-      <c r="A949" s="18" t="n"/>
-      <c r="B949" s="19" t="n"/>
+      <c r="A949" s="17" t="n"/>
+      <c r="B949" s="17" t="n"/>
     </row>
     <row r="950">
-      <c r="A950" s="18" t="n"/>
-      <c r="B950" s="19" t="n"/>
+      <c r="A950" s="17" t="n"/>
+      <c r="B950" s="17" t="n"/>
     </row>
     <row r="951">
       <c r="A951" s="20" t="n"/>
-      <c r="B951" s="19" t="n"/>
+      <c r="B951" s="20" t="n"/>
     </row>
     <row r="952">
       <c r="A952" s="20" t="n"/>
-      <c r="B952" s="19" t="n"/>
+      <c r="B952" s="20" t="n"/>
     </row>
     <row r="953">
-      <c r="A953" s="18" t="n"/>
-      <c r="B953" s="19" t="n"/>
+      <c r="A953" s="17" t="n"/>
+      <c r="B953" s="17" t="n"/>
     </row>
     <row r="954">
-      <c r="A954" s="18" t="n"/>
-      <c r="B954" s="19" t="n"/>
+      <c r="A954" s="17" t="n"/>
+      <c r="B954" s="17" t="n"/>
     </row>
     <row r="955">
-      <c r="A955" s="18" t="n"/>
-      <c r="B955" s="19" t="n"/>
+      <c r="A955" s="17" t="n"/>
+      <c r="B955" s="17" t="n"/>
     </row>
     <row r="956">
       <c r="A956" s="20" t="n"/>
-      <c r="B956" s="19" t="n"/>
+      <c r="B956" s="20" t="n"/>
     </row>
     <row r="957">
-      <c r="A957" s="18" t="n"/>
-      <c r="B957" s="19" t="n"/>
+      <c r="A957" s="17" t="n"/>
+      <c r="B957" s="17" t="n"/>
     </row>
     <row r="958">
       <c r="A958" s="20" t="n"/>
-      <c r="B958" s="19" t="n"/>
+      <c r="B958" s="20" t="n"/>
     </row>
     <row r="959">
       <c r="A959" s="20" t="n"/>
-      <c r="B959" s="19" t="n"/>
+      <c r="B959" s="20" t="n"/>
     </row>
     <row r="960">
-      <c r="A960" s="18" t="n"/>
-      <c r="B960" s="19" t="n"/>
+      <c r="A960" s="17" t="n"/>
+      <c r="B960" s="17" t="n"/>
     </row>
     <row r="961">
       <c r="A961" s="21" t="n"/>
-      <c r="B961" s="19" t="n"/>
-    </row>
-    <row r="962">
-      <c r="B962" s="19" t="n"/>
-    </row>
-    <row r="963" ht="14.25" customHeight="1">
-      <c r="B963" s="8" t="n"/>
+      <c r="B961" s="17" t="n"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.7" right="0.7" top="0.7874015750000001" bottom="0.7874015750000001" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" useFirstPageNumber="0" pageOrder="downThenOver" usePrinterDefaults="1" blackAndWhite="0" draft="0" errors="displayed" horizontalDpi="1200" verticalDpi="1200" copies="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
